--- a/test.xlsx
+++ b/test.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="185">
   <si>
     <t>STT</t>
   </si>
@@ -470,186 +470,532 @@
     <t>Tổng tiền</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Địa chỉ văn phòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Địa chỉ nhà xưởng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Hotline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Khách hàng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Địa chỉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Điện thoại</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Ngày</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>: 06/11/2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>NỘI THẤT PHÒNG BẾP</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
         <sz val="18.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t xml:space="preserve">Công ty Aasd asdasd </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Địa chỉ văn phòng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>: jmpRyQkXyCvURywAhcBYwUWbrERgwJcLhnbYuGtLVepZXUtBeDNMBvAqDtSBALjXaYdxZwpMrVvPkWnM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Địa chỉ nhà xưởng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>: jmpRyQkXyCvURywAhcBYwUWbrERgwJcLhnbYuGtLVepZXUtBeDNMBvAqDtSBALjXaYdxZwpMrVvPkWnM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Hotline</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">: asdsdsadasdsa </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Email</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>: dasdasdas sadasdsadasdas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">Khách hàng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Địa chỉ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Điện thoại</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Ngày</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>: 26/10/2023</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Sản phẩm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-  </si>
-  <si>
+      <t>787,291,245</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Tủ bếp kịch trần/ tầng 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Thùng và cánh: MDF chống ẩm 17mm phủ Melamine An Cường
+- </t>
+    </r>
     <r>
       <rPr>
         <b val="true"/>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>I</t>
-    </r>
-  </si>
-  <si>
+      <t>Hậu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>: Nhôm Alu dày 3mm chống nước tuyệt đối</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>999.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>350.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>400.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Mét dài</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1,435,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0.999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1,433,565</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Tủ bếp dưới </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="14.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>NỘI THẤT PHÒNG BẾP</t>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Thùng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">: nhựa Picomat 17mm chống nước tuyệt đối. 
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Cánh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">: MDF chống ẩm 17mm phủ Melamine An Cường.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Hậu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>: Nhôm Alu dày 3mm chống nước tuyệt đối</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>99999.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>600.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>870.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2,550,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>99.999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>254,997,450</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Tủ bếp trên </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>9999.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>800.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1,800,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>9.999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>17,998,200</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>II</t>
     </r>
   </si>
   <si>
@@ -668,7 +1014,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>1</t>
+      <t>0.0</t>
     </r>
   </si>
   <si>
@@ -677,31 +1023,100 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t xml:space="preserve">Tủ bếp dưới </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Thùng</t>
-    </r>
+      <t>III</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="18.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>15,184,650</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t xml:space="preserve">: nhựa Picomat 17mm chống nước tuyệt đối. 
+      <t>5676.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>5.676</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>10,216,800</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>879.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0.879</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2,241,450</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Bàn đảo bếp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">-Thùng: nhựa Picomat 17mm  chống nước tuyệt đối
+-Cánh: MDF chống ẩm 17mm phủ Melamine An Cường 
 - </t>
     </r>
     <r>
@@ -710,136 +1125,90 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Cánh</t>
+      <t>Mặt lộ</t>
     </r>
     <r>
       <rPr>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t xml:space="preserve">: MDF chống ẩm 17mm phủ Melamine An Cường.
-- </t>
-    </r>
+      <t xml:space="preserve">: MDF chống ẩm 17mm phủ Melamine An Cường </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>768.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>3,550,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0.768</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2,726,400</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Hậu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>: Nhôm Alu dày 3mm chống nước tuyệt đối</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>0.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>600.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>870.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Mét dài</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>2,550,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">Tủ bếp trên </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">Thùng và cánh: MDF chống ẩm 17mm phủ Melamine An Cường
-- </t>
-    </r>
+      <t>IV</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Hậu</t>
-    </r>
-    <r>
-      <rPr>
+      <t>V</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>: Nhôm Alu dày 3mm chống nước tuyệt đối</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>VI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>350.0</t>
+      <t>VII</t>
     </r>
   </si>
   <si>
@@ -848,7 +1217,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>800.0</t>
+      <t>863,214,495</t>
     </r>
   </si>
   <si>
@@ -857,7 +1226,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>1,800,000</t>
+      <t>86,000,000</t>
     </r>
   </si>
   <si>
@@ -866,11 +1235,8 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t/>
+      <t>259,000,000</t>
+    </r>
   </si>
   <si>
     <r>
@@ -878,7 +1244,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>4</t>
+      <t>432,000,000</t>
     </r>
   </si>
   <si>
@@ -887,16 +1253,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>6</t>
+      <t>86,214,495</t>
     </r>
   </si>
   <si>
@@ -905,7 +1262,7 @@
         <sz val="13.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Chú thích: sdasdsadasfdsadddsafadsfdasfdsafdsfdsfdsaf assadsdasd adsa asdasd aasdas dasdasd đúlkádjlkj sạdákjdáoịịo ádsđáiadjíaội</t>
+      <t>Chú thích:</t>
     </r>
   </si>
 </sst>
@@ -917,7 +1274,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="204">
+  <fonts count="615">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1339,417 +1696,2149 @@
     <font>
       <name val="Times New Roman"/>
       <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -2055,7 +4144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="393">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2475,8 +4564,11 @@
     <xf numFmtId="0" fontId="71" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -2500,9 +4592,6 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
@@ -2535,48 +4624,39 @@
     <xf numFmtId="0" fontId="115" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
     <xf numFmtId="0" fontId="145" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
@@ -2596,50 +4676,47 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="157" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
@@ -2665,6 +4742,582 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -3095,7 +5748,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -3373,294 +6026,946 @@
         <v>134</v>
       </c>
       <c r="I15" t="s" s="147">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s" s="148">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" ht="77.5" customHeight="true">
       <c r="A16" t="s" s="149">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="150">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s" s="151">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s" s="152">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s" s="153">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F16" t="s" s="154">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s" s="155">
         <v>133</v>
       </c>
       <c r="H16" t="s" s="156">
+        <v>143</v>
+      </c>
+      <c r="I16" t="s" s="157">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s" s="158">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" ht="77.5" customHeight="true">
+      <c r="A17" t="s" s="159">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s" s="160">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s" s="161">
+        <v>139</v>
+      </c>
+      <c r="D17" t="s" s="162">
+        <v>140</v>
+      </c>
+      <c r="E17" t="s" s="163">
         <v>141</v>
       </c>
-      <c r="I16" t="s" s="157">
-        <v>130</v>
-      </c>
-      <c r="J16" t="s" s="158">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" ht="40.0" customHeight="true">
-      <c r="A17" t="s" s="159">
+      <c r="F17" t="s" s="164">
         <v>142</v>
       </c>
-      <c r="B17" t="s" s="160">
+      <c r="G17" t="s" s="165">
+        <v>133</v>
+      </c>
+      <c r="H17" t="s" s="166">
         <v>143</v>
       </c>
-      <c r="C17" t="s" s="161">
+      <c r="I17" t="s" s="167">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s" s="168">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" ht="77.5" customHeight="true">
+      <c r="A18" t="s" s="169">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s" s="170">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s" s="171">
+        <v>139</v>
+      </c>
+      <c r="D18" t="s" s="172">
+        <v>140</v>
+      </c>
+      <c r="E18" t="s" s="173">
+        <v>141</v>
+      </c>
+      <c r="F18" t="s" s="174">
+        <v>142</v>
+      </c>
+      <c r="G18" t="s" s="175">
+        <v>133</v>
+      </c>
+      <c r="H18" t="s" s="176">
         <v>143</v>
       </c>
-      <c r="D17" t="s" s="162">
-        <v>130</v>
-      </c>
-      <c r="E17" t="s" s="163">
-        <v>130</v>
-      </c>
-      <c r="F17" t="s" s="164">
-        <v>130</v>
-      </c>
-      <c r="G17" t="s" s="165">
-        <v>143</v>
-      </c>
-      <c r="H17" t="s" s="166">
-        <v>135</v>
-      </c>
-      <c r="I17" t="s" s="167">
-        <v>130</v>
-      </c>
-      <c r="J17" t="s" s="168">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" ht="40.0" customHeight="true">
-      <c r="A18" t="s" s="169">
+      <c r="I18" t="s" s="177">
         <v>144</v>
       </c>
-      <c r="B18" t="s" s="170">
-        <v>143</v>
-      </c>
-      <c r="C18" t="s" s="171">
-        <v>143</v>
-      </c>
-      <c r="D18" t="s" s="172">
-        <v>130</v>
-      </c>
-      <c r="E18" t="s" s="173">
-        <v>130</v>
-      </c>
-      <c r="F18" t="s" s="174">
-        <v>130</v>
-      </c>
-      <c r="G18" t="s" s="175">
-        <v>143</v>
-      </c>
-      <c r="H18" t="s" s="176">
-        <v>135</v>
-      </c>
-      <c r="I18" t="s" s="177">
-        <v>130</v>
-      </c>
       <c r="J18" t="s" s="178">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" ht="40.0" customHeight="true">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" ht="77.5" customHeight="true">
       <c r="A19" t="s" s="179">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="180">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s" s="181">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s" s="182">
         <v>130</v>
       </c>
       <c r="E19" t="s" s="183">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s" s="184">
+        <v>132</v>
+      </c>
+      <c r="G19" t="s" s="185">
+        <v>133</v>
+      </c>
+      <c r="H19" t="s" s="186">
+        <v>134</v>
+      </c>
+      <c r="I19" t="s" s="187">
+        <v>135</v>
+      </c>
+      <c r="J19" t="s" s="188">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" ht="77.5" customHeight="true">
+      <c r="A20" t="s" s="189">
+        <v>149</v>
+      </c>
+      <c r="B20" t="s" s="190">
+        <v>150</v>
+      </c>
+      <c r="C20" t="s" s="191">
+        <v>129</v>
+      </c>
+      <c r="D20" t="s" s="192">
+        <v>151</v>
+      </c>
+      <c r="E20" t="s" s="193">
+        <v>131</v>
+      </c>
+      <c r="F20" t="s" s="194">
+        <v>152</v>
+      </c>
+      <c r="G20" t="s" s="195">
+        <v>133</v>
+      </c>
+      <c r="H20" t="s" s="196">
+        <v>153</v>
+      </c>
+      <c r="I20" t="s" s="197">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s" s="198">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" ht="77.5" customHeight="true">
+      <c r="A21" t="s" s="199">
+        <v>156</v>
+      </c>
+      <c r="B21" t="s" s="200">
+        <v>128</v>
+      </c>
+      <c r="C21" t="s" s="201">
+        <v>129</v>
+      </c>
+      <c r="D21" t="s" s="202">
         <v>130</v>
       </c>
-      <c r="F19" t="s" s="184">
-        <v>130</v>
-      </c>
-      <c r="G19" t="s" s="185">
+      <c r="E21" t="s" s="203">
+        <v>131</v>
+      </c>
+      <c r="F21" t="s" s="204">
+        <v>132</v>
+      </c>
+      <c r="G21" t="s" s="205">
+        <v>133</v>
+      </c>
+      <c r="H21" t="s" s="206">
+        <v>134</v>
+      </c>
+      <c r="I21" t="s" s="207">
+        <v>135</v>
+      </c>
+      <c r="J21" t="s" s="208">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" ht="22.5" customHeight="true">
+      <c r="A22" t="s" s="209">
+        <v>157</v>
+      </c>
+      <c r="B22" t="s" s="210">
+        <v>125</v>
+      </c>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" t="s" s="211">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" ht="77.5" customHeight="true">
+      <c r="A23" t="s" s="212">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s" s="213">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s" s="214">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s" s="215">
+        <v>159</v>
+      </c>
+      <c r="E23" t="s" s="216">
+        <v>131</v>
+      </c>
+      <c r="F23" t="s" s="217">
+        <v>152</v>
+      </c>
+      <c r="G23" t="s" s="218">
+        <v>133</v>
+      </c>
+      <c r="H23" t="s" s="219">
+        <v>153</v>
+      </c>
+      <c r="I23" t="s" s="220">
+        <v>159</v>
+      </c>
+      <c r="J23" t="s" s="221">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" ht="22.5" customHeight="true">
+      <c r="A24" t="s" s="222">
+        <v>161</v>
+      </c>
+      <c r="B24" t="s" s="223">
+        <v>125</v>
+      </c>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" t="s" s="224">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" ht="77.5" customHeight="true">
+      <c r="A25" t="s" s="225">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s" s="226">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s" s="227">
+        <v>129</v>
+      </c>
+      <c r="D25" t="s" s="228">
+        <v>163</v>
+      </c>
+      <c r="E25" t="s" s="229">
+        <v>131</v>
+      </c>
+      <c r="F25" t="s" s="230">
+        <v>152</v>
+      </c>
+      <c r="G25" t="s" s="231">
+        <v>133</v>
+      </c>
+      <c r="H25" t="s" s="232">
+        <v>153</v>
+      </c>
+      <c r="I25" t="s" s="233">
+        <v>164</v>
+      </c>
+      <c r="J25" t="s" s="234">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" ht="77.5" customHeight="true">
+      <c r="A26" t="s" s="235">
+        <v>137</v>
+      </c>
+      <c r="B26" t="s" s="236">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s" s="237">
+        <v>139</v>
+      </c>
+      <c r="D26" t="s" s="238">
+        <v>166</v>
+      </c>
+      <c r="E26" t="s" s="239">
+        <v>141</v>
+      </c>
+      <c r="F26" t="s" s="240">
+        <v>142</v>
+      </c>
+      <c r="G26" t="s" s="241">
+        <v>133</v>
+      </c>
+      <c r="H26" t="s" s="242">
         <v>143</v>
       </c>
-      <c r="H19" t="s" s="186">
-        <v>135</v>
-      </c>
-      <c r="I19" t="s" s="187">
-        <v>130</v>
-      </c>
-      <c r="J19" t="s" s="188">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" ht="40.0" customHeight="true">
-      <c r="A20" t="s" s="189">
+      <c r="I26" t="s" s="243">
+        <v>167</v>
+      </c>
+      <c r="J26" t="s" s="244">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" ht="77.5" customHeight="true">
+      <c r="A27" t="s" s="245">
         <v>146</v>
       </c>
-      <c r="B20" t="s" s="190">
+      <c r="B27" t="s" s="246">
+        <v>169</v>
+      </c>
+      <c r="C27" t="s" s="247">
+        <v>170</v>
+      </c>
+      <c r="D27" t="s" s="248">
+        <v>171</v>
+      </c>
+      <c r="E27" t="s" s="249">
+        <v>141</v>
+      </c>
+      <c r="F27" t="s" s="250">
+        <v>142</v>
+      </c>
+      <c r="G27" t="s" s="251">
+        <v>133</v>
+      </c>
+      <c r="H27" t="s" s="252">
+        <v>172</v>
+      </c>
+      <c r="I27" t="s" s="253">
+        <v>173</v>
+      </c>
+      <c r="J27" t="s" s="254">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" ht="22.5" customHeight="true">
+      <c r="A28" t="s" s="255">
+        <v>175</v>
+      </c>
+      <c r="B28" t="s" s="256">
+        <v>125</v>
+      </c>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" t="s" s="257">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" ht="77.5" customHeight="true">
+      <c r="A29" t="s" s="258">
+        <v>127</v>
+      </c>
+      <c r="B29" t="s" s="259">
+        <v>150</v>
+      </c>
+      <c r="C29" t="s" s="260">
+        <v>129</v>
+      </c>
+      <c r="D29" t="s" s="261">
+        <v>163</v>
+      </c>
+      <c r="E29" t="s" s="262">
+        <v>131</v>
+      </c>
+      <c r="F29" t="s" s="263">
+        <v>152</v>
+      </c>
+      <c r="G29" t="s" s="264">
+        <v>133</v>
+      </c>
+      <c r="H29" t="s" s="265">
+        <v>153</v>
+      </c>
+      <c r="I29" t="s" s="266">
+        <v>164</v>
+      </c>
+      <c r="J29" t="s" s="267">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" ht="77.5" customHeight="true">
+      <c r="A30" t="s" s="268">
+        <v>137</v>
+      </c>
+      <c r="B30" t="s" s="269">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s" s="270">
+        <v>139</v>
+      </c>
+      <c r="D30" t="s" s="271">
+        <v>166</v>
+      </c>
+      <c r="E30" t="s" s="272">
+        <v>141</v>
+      </c>
+      <c r="F30" t="s" s="273">
+        <v>142</v>
+      </c>
+      <c r="G30" t="s" s="274">
+        <v>133</v>
+      </c>
+      <c r="H30" t="s" s="275">
         <v>143</v>
       </c>
-      <c r="C20" t="s" s="191">
+      <c r="I30" t="s" s="276">
+        <v>167</v>
+      </c>
+      <c r="J30" t="s" s="277">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" ht="77.5" customHeight="true">
+      <c r="A31" t="s" s="278">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s" s="279">
+        <v>169</v>
+      </c>
+      <c r="C31" t="s" s="280">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s" s="281">
+        <v>171</v>
+      </c>
+      <c r="E31" t="s" s="282">
+        <v>141</v>
+      </c>
+      <c r="F31" t="s" s="283">
+        <v>142</v>
+      </c>
+      <c r="G31" t="s" s="284">
+        <v>133</v>
+      </c>
+      <c r="H31" t="s" s="285">
+        <v>172</v>
+      </c>
+      <c r="I31" t="s" s="286">
+        <v>173</v>
+      </c>
+      <c r="J31" t="s" s="287">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" ht="22.5" customHeight="true">
+      <c r="A32" t="s" s="288">
+        <v>176</v>
+      </c>
+      <c r="B32" t="s" s="289">
+        <v>125</v>
+      </c>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" t="s" s="290">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" ht="77.5" customHeight="true">
+      <c r="A33" t="s" s="291">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s" s="292">
+        <v>150</v>
+      </c>
+      <c r="C33" t="s" s="293">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s" s="294">
+        <v>163</v>
+      </c>
+      <c r="E33" t="s" s="295">
+        <v>131</v>
+      </c>
+      <c r="F33" t="s" s="296">
+        <v>152</v>
+      </c>
+      <c r="G33" t="s" s="297">
+        <v>133</v>
+      </c>
+      <c r="H33" t="s" s="298">
+        <v>153</v>
+      </c>
+      <c r="I33" t="s" s="299">
+        <v>164</v>
+      </c>
+      <c r="J33" t="s" s="300">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" ht="77.5" customHeight="true">
+      <c r="A34" t="s" s="301">
+        <v>137</v>
+      </c>
+      <c r="B34" t="s" s="302">
+        <v>138</v>
+      </c>
+      <c r="C34" t="s" s="303">
+        <v>139</v>
+      </c>
+      <c r="D34" t="s" s="304">
+        <v>166</v>
+      </c>
+      <c r="E34" t="s" s="305">
+        <v>141</v>
+      </c>
+      <c r="F34" t="s" s="306">
+        <v>142</v>
+      </c>
+      <c r="G34" t="s" s="307">
+        <v>133</v>
+      </c>
+      <c r="H34" t="s" s="308">
         <v>143</v>
       </c>
-      <c r="D20" t="s" s="192">
-        <v>130</v>
-      </c>
-      <c r="E20" t="s" s="193">
-        <v>130</v>
-      </c>
-      <c r="F20" t="s" s="194">
-        <v>130</v>
-      </c>
-      <c r="G20" t="s" s="195">
+      <c r="I34" t="s" s="309">
+        <v>167</v>
+      </c>
+      <c r="J34" t="s" s="310">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" ht="77.5" customHeight="true">
+      <c r="A35" t="s" s="311">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s" s="312">
+        <v>169</v>
+      </c>
+      <c r="C35" t="s" s="313">
+        <v>170</v>
+      </c>
+      <c r="D35" t="s" s="314">
+        <v>171</v>
+      </c>
+      <c r="E35" t="s" s="315">
+        <v>141</v>
+      </c>
+      <c r="F35" t="s" s="316">
+        <v>142</v>
+      </c>
+      <c r="G35" t="s" s="317">
+        <v>133</v>
+      </c>
+      <c r="H35" t="s" s="318">
+        <v>172</v>
+      </c>
+      <c r="I35" t="s" s="319">
+        <v>173</v>
+      </c>
+      <c r="J35" t="s" s="320">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" ht="22.5" customHeight="true">
+      <c r="A36" t="s" s="321">
+        <v>177</v>
+      </c>
+      <c r="B36" t="s" s="322">
+        <v>125</v>
+      </c>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" t="s" s="323">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" ht="77.5" customHeight="true">
+      <c r="A37" t="s" s="324">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s" s="325">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s" s="326">
+        <v>129</v>
+      </c>
+      <c r="D37" t="s" s="327">
+        <v>163</v>
+      </c>
+      <c r="E37" t="s" s="328">
+        <v>131</v>
+      </c>
+      <c r="F37" t="s" s="329">
+        <v>152</v>
+      </c>
+      <c r="G37" t="s" s="330">
+        <v>133</v>
+      </c>
+      <c r="H37" t="s" s="331">
+        <v>153</v>
+      </c>
+      <c r="I37" t="s" s="332">
+        <v>164</v>
+      </c>
+      <c r="J37" t="s" s="333">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" ht="77.5" customHeight="true">
+      <c r="A38" t="s" s="334">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s" s="335">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s" s="336">
+        <v>139</v>
+      </c>
+      <c r="D38" t="s" s="337">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s" s="338">
+        <v>141</v>
+      </c>
+      <c r="F38" t="s" s="339">
+        <v>142</v>
+      </c>
+      <c r="G38" t="s" s="340">
+        <v>133</v>
+      </c>
+      <c r="H38" t="s" s="341">
         <v>143</v>
       </c>
-      <c r="H20" t="s" s="196">
-        <v>135</v>
-      </c>
-      <c r="I20" t="s" s="197">
-        <v>130</v>
-      </c>
-      <c r="J20" t="s" s="198">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="47.85" customHeight="1">
-      <c r="A21" s="90" t="s">
+      <c r="I38" t="s" s="342">
+        <v>167</v>
+      </c>
+      <c r="J38" t="s" s="343">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" ht="77.5" customHeight="true">
+      <c r="A39" t="s" s="344">
+        <v>146</v>
+      </c>
+      <c r="B39" t="s" s="345">
+        <v>169</v>
+      </c>
+      <c r="C39" t="s" s="346">
+        <v>170</v>
+      </c>
+      <c r="D39" t="s" s="347">
+        <v>171</v>
+      </c>
+      <c r="E39" t="s" s="348">
+        <v>141</v>
+      </c>
+      <c r="F39" t="s" s="349">
+        <v>142</v>
+      </c>
+      <c r="G39" t="s" s="350">
+        <v>133</v>
+      </c>
+      <c r="H39" t="s" s="351">
+        <v>172</v>
+      </c>
+      <c r="I39" t="s" s="352">
+        <v>173</v>
+      </c>
+      <c r="J39" t="s" s="353">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" ht="22.5" customHeight="true">
+      <c r="A40" t="s" s="354">
+        <v>178</v>
+      </c>
+      <c r="B40" t="s" s="355">
+        <v>125</v>
+      </c>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" t="s" s="356">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" ht="77.5" customHeight="true">
+      <c r="A41" t="s" s="357">
+        <v>127</v>
+      </c>
+      <c r="B41" t="s" s="358">
+        <v>150</v>
+      </c>
+      <c r="C41" t="s" s="359">
+        <v>129</v>
+      </c>
+      <c r="D41" t="s" s="360">
+        <v>163</v>
+      </c>
+      <c r="E41" t="s" s="361">
+        <v>131</v>
+      </c>
+      <c r="F41" t="s" s="362">
+        <v>152</v>
+      </c>
+      <c r="G41" t="s" s="363">
+        <v>133</v>
+      </c>
+      <c r="H41" t="s" s="364">
+        <v>153</v>
+      </c>
+      <c r="I41" t="s" s="365">
+        <v>164</v>
+      </c>
+      <c r="J41" t="s" s="366">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" ht="77.5" customHeight="true">
+      <c r="A42" t="s" s="367">
+        <v>137</v>
+      </c>
+      <c r="B42" t="s" s="368">
+        <v>138</v>
+      </c>
+      <c r="C42" t="s" s="369">
+        <v>139</v>
+      </c>
+      <c r="D42" t="s" s="370">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s" s="371">
+        <v>141</v>
+      </c>
+      <c r="F42" t="s" s="372">
+        <v>142</v>
+      </c>
+      <c r="G42" t="s" s="373">
+        <v>133</v>
+      </c>
+      <c r="H42" t="s" s="374">
+        <v>143</v>
+      </c>
+      <c r="I42" t="s" s="375">
+        <v>167</v>
+      </c>
+      <c r="J42" t="s" s="376">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" ht="77.5" customHeight="true">
+      <c r="A43" t="s" s="377">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s" s="378">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s" s="379">
+        <v>170</v>
+      </c>
+      <c r="D43" t="s" s="380">
+        <v>171</v>
+      </c>
+      <c r="E43" t="s" s="381">
+        <v>141</v>
+      </c>
+      <c r="F43" t="s" s="382">
+        <v>142</v>
+      </c>
+      <c r="G43" t="s" s="383">
+        <v>133</v>
+      </c>
+      <c r="H43" t="s" s="384">
+        <v>172</v>
+      </c>
+      <c r="I43" t="s" s="385">
+        <v>173</v>
+      </c>
+      <c r="J43" t="s" s="386">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="47.85" customHeight="1">
+      <c r="A44" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="11" t="s">
+      <c r="B44" s="90"/>
+      <c r="C44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="83" t="s">
+      <c r="D44" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="83" t="s">
+      <c r="E44" s="85"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="84"/>
-      <c r="I21" s="83" t="s">
+      <c r="H44" s="84"/>
+      <c r="I44" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="84"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" ht="29.6" customHeight="true">
-      <c r="A22" s="199" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="200" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="201" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="87"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="202" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="88"/>
-      <c r="I22" s="203" t="s">
-        <v>135</v>
-      </c>
-      <c r="J22" s="88"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="93.45" customHeight="true">
-      <c r="A23" s="204" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A24" s="82" t="s">
+      <c r="J44" s="84"/>
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" spans="1:11" ht="29.6" customHeight="true">
+      <c r="A45" s="387" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="91"/>
+      <c r="C45" s="388" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="389" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="87"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="390" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" s="88"/>
+      <c r="I45" s="391" t="s">
+        <v>183</v>
+      </c>
+      <c r="J45" s="88"/>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11" ht="93.45" customHeight="true">
+      <c r="A46" s="392" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A47" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="82" t="s">
+      <c r="B47" s="82"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A48" s="82"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="82"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A26" s="82"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" ht="17.45" customHeight="1">
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="K30" s="14"/>
-    </row>
-    <row r="39" spans="1:11" ht="17.45" customHeight="1"/>
-    <row r="40" ht="32.85" customHeight="1"/>
-    <row r="41" ht="16.149999999999999" customHeight="1"/>
-    <row r="42" ht="16.149999999999999" customHeight="1"/>
-    <row r="43" ht="16.149999999999999" customHeight="1"/>
-    <row r="44" ht="16.149999999999999" customHeight="1"/>
-    <row r="45" ht="16.149999999999999" customHeight="1"/>
-    <row r="46" ht="72.400000000000006" customHeight="1"/>
-    <row r="47" ht="13.9" customHeight="1"/>
-    <row r="48" ht="16.149999999999999" customHeight="1"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A49" s="82"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11" ht="17.45" customHeight="1">
+      <c r="K50" s="14"/>
+    </row>
+    <row r="51" spans="1:11" ht="72.400000000000006" customHeight="1">
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="1:11" ht="72.400000000000006" customHeight="1">
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="K53" s="14"/>
+    </row>
+    <row r="62" spans="1:11" ht="17.45" customHeight="1"/>
+    <row r="63" ht="32.85" customHeight="1"/>
+    <row r="64" ht="16.149999999999999" customHeight="1"/>
+    <row r="65" ht="16.149999999999999" customHeight="1"/>
+    <row r="66" ht="16.149999999999999" customHeight="1"/>
+    <row r="67" ht="16.149999999999999" customHeight="1"/>
+    <row r="68" ht="16.149999999999999" customHeight="1"/>
+    <row r="69" ht="72.400000000000006" customHeight="1"/>
+    <row r="70" ht="13.9" customHeight="1"/>
+    <row r="71" ht="16.149999999999999" customHeight="1"/>
   </sheetData>
-  <mergeCells count="110">
+  <mergeCells count="369">
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="A1:B5"/>
     <mergeCell ref="A6:J6"/>
@@ -3683,17 +6988,23 @@
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="B14:I14"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:C26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A47:C49"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="167">
   <si>
     <t>STT</t>
   </si>
@@ -605,7 +605,7 @@
         <sz val="13.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>: 06/11/2023</t>
+      <t>: 07/11/2023</t>
     </r>
   </si>
   <si>
@@ -642,7 +642,7 @@
         <sz val="14.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>NỘI THẤT PHÒNG BẾP</t>
+      <t>NỘI THẤT PHÒNG KHÁCH</t>
     </r>
   </si>
   <si>
@@ -652,7 +652,7 @@
         <sz val="18.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>787,291,245</t>
+      <t>45,021,931</t>
     </r>
   </si>
   <si>
@@ -670,7 +670,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Tủ bếp kịch trần/ tầng 2</t>
+      <t>Ghế sofa văng</t>
     </r>
   </si>
   <si>
@@ -679,23 +679,25 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t xml:space="preserve">Thùng và cánh: MDF chống ẩm 17mm phủ Melamine An Cường
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>Khung gỗ thông, bọc da hoặc nỉ công nghiệp Hàn Quốc, Giá trị tạm tính tính theo mẫu thực tế</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Hậu</t>
-    </r>
+      <t>900.0</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>: Nhôm Alu dày 3mm chống nước tuyệt đối</t>
+      <t>800.0</t>
     </r>
   </si>
   <si>
@@ -704,7 +706,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>999.0</t>
+      <t>750.0</t>
     </r>
   </si>
   <si>
@@ -713,7 +715,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>350.0</t>
+      <t>Mét dài</t>
     </r>
   </si>
   <si>
@@ -722,6 +724,60 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
+      <t>3,980,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0.9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>3,582,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Đôn ngồi sofa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>300.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
       <t>400.0</t>
     </r>
   </si>
@@ -731,7 +787,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Mét dài</t>
+      <t>Chiếc</t>
     </r>
   </si>
   <si>
@@ -740,7 +796,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>1,435,000</t>
+      <t>1,550,000</t>
     </r>
   </si>
   <si>
@@ -749,7 +805,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>0.999</t>
+      <t>1.0</t>
     </r>
   </si>
   <si>
@@ -758,7 +814,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>1,433,565</t>
+      <t>3</t>
     </r>
   </si>
   <si>
@@ -767,7 +823,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>2</t>
+      <t>1234.0</t>
     </r>
   </si>
   <si>
@@ -776,7 +832,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t xml:space="preserve">Tủ bếp dưới </t>
+      <t>1.234</t>
     </r>
   </si>
   <si>
@@ -785,54 +841,62 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>4,911,320</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Thùng</t>
-    </r>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t xml:space="preserve">: nhựa Picomat 17mm chống nước tuyệt đối. 
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>Ốp vách</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Cánh</t>
-    </r>
+      <t>Vách ốp nhựa vân đá in 
+( dùng cho các tấm không có sẵn hàng, vân đối xứng,...) asldjknaklsdnsakljdn</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t xml:space="preserve">: MDF chống ẩm 17mm phủ Melamine An Cường.
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>5.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Hậu</t>
-    </r>
+      <t>5678.0</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>: Nhôm Alu dày 3mm chống nước tuyệt đối</t>
+      <t>Mét vuông</t>
     </r>
   </si>
   <si>
@@ -841,7 +905,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>99999.0</t>
+      <t>2,398,000</t>
     </r>
   </si>
   <si>
@@ -850,7 +914,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>600.0</t>
+      <t>7.006652</t>
     </r>
   </si>
   <si>
@@ -859,7 +923,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>870.0</t>
+      <t>16,801,951</t>
     </r>
   </si>
   <si>
@@ -868,7 +932,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>2,550,000</t>
+      <t>5</t>
     </r>
   </si>
   <si>
@@ -877,7 +941,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>99.999</t>
+      <t>4567.0</t>
     </r>
   </si>
   <si>
@@ -886,7 +950,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>254,997,450</t>
+      <t>4.567</t>
     </r>
   </si>
   <si>
@@ -895,7 +959,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>3</t>
+      <t>18,176,660</t>
     </r>
   </si>
   <si>
@@ -904,7 +968,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>4</t>
+      <t>45,021,931</t>
     </r>
   </si>
   <si>
@@ -913,7 +977,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>5</t>
+      <t>5,000,000</t>
     </r>
   </si>
   <si>
@@ -922,7 +986,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>6</t>
+      <t>14,000,000</t>
     </r>
   </si>
   <si>
@@ -931,7 +995,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t xml:space="preserve">Tủ bếp trên </t>
+      <t>23,000,000</t>
     </r>
   </si>
   <si>
@@ -940,320 +1004,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>9999.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>800.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>1,800,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>9.999</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>17,998,200</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="18.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>0.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>III</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="18.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>15,184,650</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>5676.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>5.676</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>10,216,800</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>879.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>0.879</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>2,241,450</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Bàn đảo bếp</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">-Thùng: nhựa Picomat 17mm  chống nước tuyệt đối
--Cánh: MDF chống ẩm 17mm phủ Melamine An Cường 
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Mặt lộ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">: MDF chống ẩm 17mm phủ Melamine An Cường </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>768.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>3,550,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>0.768</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>2,726,400</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>IV</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>V</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>VI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>VII</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>863,214,495</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>86,000,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>259,000,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>432,000,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>86,214,495</t>
+      <t>3,021,931</t>
     </r>
   </si>
   <si>
@@ -1274,7 +1025,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="615">
+  <fonts count="180">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1691,6 +1442,82 @@
     <font>
       <name val="Times New Roman"/>
       <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
@@ -1777,2068 +1604,159 @@
     <font>
       <name val="Times New Roman"/>
       <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Times New Roman"/>
       <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -4144,7 +2062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="393">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4564,38 +2482,44 @@
     <xf numFmtId="0" fontId="71" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -4619,43 +2543,52 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="113" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="145" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -4670,7 +2603,7 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -4684,640 +2617,31 @@
     <xf numFmtId="0" fontId="161" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="214" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="266" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="276" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="278" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="283" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="293" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="299" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="301" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="308" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="314" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="324" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="326" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="328" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="331" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="333" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="335" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="339" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="341" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="343" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="349" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="354" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="360" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="362" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="364" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="366" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="368" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="370" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="377" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="379" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="381" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="383" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="385" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="393" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="395" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="397" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="399" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="408" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="410" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="412" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="416" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="418" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="420" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="427" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="429" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="431" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="433" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="435" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="437" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="439" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="446" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="448" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="450" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="452" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="454" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="456" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="460" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="462" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="464" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="466" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="468" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="470" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="475" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="477" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="479" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="481" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="483" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="485" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="487" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="489" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="491" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="496" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="498" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="500" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="502" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="504" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="506" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="508" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="510" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="512" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="514" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="517" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="519" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="521" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="523" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="525" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="527" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="529" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="531" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="533" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="535" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="537" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="539" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="541" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="544" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="546" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="548" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="550" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="552" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="554" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="556" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="558" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="560" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="562" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="567" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="569" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="571" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="573" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="575" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="577" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="579" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="581" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="583" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="585" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="588" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="590" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="592" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="594" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="596" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="598" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="600" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="602" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="604" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="606" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="608" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="610" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="612" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="614" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -5748,7 +3072,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -6000,7 +3324,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" ht="77.5" customHeight="true">
+    <row r="15" ht="40.0" customHeight="true">
       <c r="A15" t="s" s="139">
         <v>127</v>
       </c>
@@ -6032,7 +3356,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" ht="77.5" customHeight="true">
+    <row r="16" ht="40.0" customHeight="true">
       <c r="A16" t="s" s="149">
         <v>137</v>
       </c>
@@ -6040,97 +3364,97 @@
         <v>138</v>
       </c>
       <c r="C16" t="s" s="151">
+        <v>129</v>
+      </c>
+      <c r="D16" t="s" s="152">
         <v>139</v>
       </c>
-      <c r="D16" t="s" s="152">
+      <c r="E16" t="s" s="153">
+        <v>139</v>
+      </c>
+      <c r="F16" t="s" s="154">
         <v>140</v>
       </c>
-      <c r="E16" t="s" s="153">
+      <c r="G16" t="s" s="155">
         <v>141</v>
       </c>
-      <c r="F16" t="s" s="154">
+      <c r="H16" t="s" s="156">
         <v>142</v>
       </c>
-      <c r="G16" t="s" s="155">
-        <v>133</v>
-      </c>
-      <c r="H16" t="s" s="156">
+      <c r="I16" t="s" s="157">
         <v>143</v>
       </c>
-      <c r="I16" t="s" s="157">
+      <c r="J16" t="s" s="158">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" ht="40.0" customHeight="true">
+      <c r="A17" t="s" s="159">
         <v>144</v>
       </c>
-      <c r="J16" t="s" s="158">
+      <c r="B17" t="s" s="160">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s" s="161">
+        <v>129</v>
+      </c>
+      <c r="D17" t="s" s="162">
         <v>145</v>
       </c>
-    </row>
-    <row r="17" ht="77.5" customHeight="true">
-      <c r="A17" t="s" s="159">
-        <v>146</v>
-      </c>
-      <c r="B17" t="s" s="160">
-        <v>138</v>
-      </c>
-      <c r="C17" t="s" s="161">
-        <v>139</v>
-      </c>
-      <c r="D17" t="s" s="162">
-        <v>140</v>
-      </c>
       <c r="E17" t="s" s="163">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F17" t="s" s="164">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s" s="165">
         <v>133</v>
       </c>
       <c r="H17" t="s" s="166">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I17" t="s" s="167">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J17" t="s" s="168">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" ht="77.5" customHeight="true">
       <c r="A18" t="s" s="169">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s" s="170">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s" s="171">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s" s="172">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s" s="173">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F18" t="s" s="174">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s" s="175">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="H18" t="s" s="176">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I18" t="s" s="177">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="J18" t="s" s="178">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" ht="77.5" customHeight="true">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" ht="40.0" customHeight="true">
       <c r="A19" t="s" s="179">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s" s="180">
         <v>128</v>
@@ -6139,7 +3463,7 @@
         <v>129</v>
       </c>
       <c r="D19" t="s" s="182">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="E19" t="s" s="183">
         <v>131</v>
@@ -6154,818 +3478,134 @@
         <v>134</v>
       </c>
       <c r="I19" t="s" s="187">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="J19" t="s" s="188">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" ht="77.5" customHeight="true">
-      <c r="A20" t="s" s="189">
-        <v>149</v>
-      </c>
-      <c r="B20" t="s" s="190">
-        <v>150</v>
-      </c>
-      <c r="C20" t="s" s="191">
-        <v>129</v>
-      </c>
-      <c r="D20" t="s" s="192">
-        <v>151</v>
-      </c>
-      <c r="E20" t="s" s="193">
-        <v>131</v>
-      </c>
-      <c r="F20" t="s" s="194">
-        <v>152</v>
-      </c>
-      <c r="G20" t="s" s="195">
-        <v>133</v>
-      </c>
-      <c r="H20" t="s" s="196">
-        <v>153</v>
-      </c>
-      <c r="I20" t="s" s="197">
-        <v>154</v>
-      </c>
-      <c r="J20" t="s" s="198">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" ht="77.5" customHeight="true">
-      <c r="A21" t="s" s="199">
-        <v>156</v>
-      </c>
-      <c r="B21" t="s" s="200">
-        <v>128</v>
-      </c>
-      <c r="C21" t="s" s="201">
-        <v>129</v>
-      </c>
-      <c r="D21" t="s" s="202">
-        <v>130</v>
-      </c>
-      <c r="E21" t="s" s="203">
-        <v>131</v>
-      </c>
-      <c r="F21" t="s" s="204">
-        <v>132</v>
-      </c>
-      <c r="G21" t="s" s="205">
-        <v>133</v>
-      </c>
-      <c r="H21" t="s" s="206">
-        <v>134</v>
-      </c>
-      <c r="I21" t="s" s="207">
-        <v>135</v>
-      </c>
-      <c r="J21" t="s" s="208">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" ht="22.5" customHeight="true">
-      <c r="A22" t="s" s="209">
-        <v>157</v>
-      </c>
-      <c r="B22" t="s" s="210">
-        <v>125</v>
-      </c>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" t="s" s="211">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" ht="77.5" customHeight="true">
-      <c r="A23" t="s" s="212">
-        <v>127</v>
-      </c>
-      <c r="B23" t="s" s="213">
-        <v>150</v>
-      </c>
-      <c r="C23" t="s" s="214">
-        <v>129</v>
-      </c>
-      <c r="D23" t="s" s="215">
-        <v>159</v>
-      </c>
-      <c r="E23" t="s" s="216">
-        <v>131</v>
-      </c>
-      <c r="F23" t="s" s="217">
-        <v>152</v>
-      </c>
-      <c r="G23" t="s" s="218">
-        <v>133</v>
-      </c>
-      <c r="H23" t="s" s="219">
-        <v>153</v>
-      </c>
-      <c r="I23" t="s" s="220">
-        <v>159</v>
-      </c>
-      <c r="J23" t="s" s="221">
         <v>160</v>
       </c>
     </row>
-    <row r="24" ht="22.5" customHeight="true">
-      <c r="A24" t="s" s="222">
+    <row r="20" spans="1:11" ht="47.85" customHeight="1">
+      <c r="A20" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="90"/>
+      <c r="C20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="85"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="84"/>
+      <c r="I20" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="84"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="29.6" customHeight="true">
+      <c r="A21" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="B24" t="s" s="223">
-        <v>125</v>
-      </c>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" t="s" s="224">
+      <c r="B21" s="91"/>
+      <c r="C21" s="190" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="25" ht="77.5" customHeight="true">
-      <c r="A25" t="s" s="225">
-        <v>127</v>
-      </c>
-      <c r="B25" t="s" s="226">
-        <v>150</v>
-      </c>
-      <c r="C25" t="s" s="227">
-        <v>129</v>
-      </c>
-      <c r="D25" t="s" s="228">
+      <c r="D21" s="191" t="s">
         <v>163</v>
       </c>
-      <c r="E25" t="s" s="229">
-        <v>131</v>
-      </c>
-      <c r="F25" t="s" s="230">
-        <v>152</v>
-      </c>
-      <c r="G25" t="s" s="231">
-        <v>133</v>
-      </c>
-      <c r="H25" t="s" s="232">
-        <v>153</v>
-      </c>
-      <c r="I25" t="s" s="233">
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="192" t="s">
         <v>164</v>
       </c>
-      <c r="J25" t="s" s="234">
+      <c r="H21" s="88"/>
+      <c r="I21" s="193" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="26" ht="77.5" customHeight="true">
-      <c r="A26" t="s" s="235">
-        <v>137</v>
-      </c>
-      <c r="B26" t="s" s="236">
-        <v>138</v>
-      </c>
-      <c r="C26" t="s" s="237">
-        <v>139</v>
-      </c>
-      <c r="D26" t="s" s="238">
+      <c r="J21" s="88"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" ht="93.45" customHeight="true">
+      <c r="A22" s="194" t="s">
         <v>166</v>
       </c>
-      <c r="E26" t="s" s="239">
-        <v>141</v>
-      </c>
-      <c r="F26" t="s" s="240">
-        <v>142</v>
-      </c>
-      <c r="G26" t="s" s="241">
-        <v>133</v>
-      </c>
-      <c r="H26" t="s" s="242">
-        <v>143</v>
-      </c>
-      <c r="I26" t="s" s="243">
-        <v>167</v>
-      </c>
-      <c r="J26" t="s" s="244">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" ht="77.5" customHeight="true">
-      <c r="A27" t="s" s="245">
-        <v>146</v>
-      </c>
-      <c r="B27" t="s" s="246">
-        <v>169</v>
-      </c>
-      <c r="C27" t="s" s="247">
-        <v>170</v>
-      </c>
-      <c r="D27" t="s" s="248">
-        <v>171</v>
-      </c>
-      <c r="E27" t="s" s="249">
-        <v>141</v>
-      </c>
-      <c r="F27" t="s" s="250">
-        <v>142</v>
-      </c>
-      <c r="G27" t="s" s="251">
-        <v>133</v>
-      </c>
-      <c r="H27" t="s" s="252">
-        <v>172</v>
-      </c>
-      <c r="I27" t="s" s="253">
-        <v>173</v>
-      </c>
-      <c r="J27" t="s" s="254">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" ht="22.5" customHeight="true">
-      <c r="A28" t="s" s="255">
-        <v>175</v>
-      </c>
-      <c r="B28" t="s" s="256">
-        <v>125</v>
-      </c>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" t="s" s="257">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" ht="77.5" customHeight="true">
-      <c r="A29" t="s" s="258">
-        <v>127</v>
-      </c>
-      <c r="B29" t="s" s="259">
-        <v>150</v>
-      </c>
-      <c r="C29" t="s" s="260">
-        <v>129</v>
-      </c>
-      <c r="D29" t="s" s="261">
-        <v>163</v>
-      </c>
-      <c r="E29" t="s" s="262">
-        <v>131</v>
-      </c>
-      <c r="F29" t="s" s="263">
-        <v>152</v>
-      </c>
-      <c r="G29" t="s" s="264">
-        <v>133</v>
-      </c>
-      <c r="H29" t="s" s="265">
-        <v>153</v>
-      </c>
-      <c r="I29" t="s" s="266">
-        <v>164</v>
-      </c>
-      <c r="J29" t="s" s="267">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" ht="77.5" customHeight="true">
-      <c r="A30" t="s" s="268">
-        <v>137</v>
-      </c>
-      <c r="B30" t="s" s="269">
-        <v>138</v>
-      </c>
-      <c r="C30" t="s" s="270">
-        <v>139</v>
-      </c>
-      <c r="D30" t="s" s="271">
-        <v>166</v>
-      </c>
-      <c r="E30" t="s" s="272">
-        <v>141</v>
-      </c>
-      <c r="F30" t="s" s="273">
-        <v>142</v>
-      </c>
-      <c r="G30" t="s" s="274">
-        <v>133</v>
-      </c>
-      <c r="H30" t="s" s="275">
-        <v>143</v>
-      </c>
-      <c r="I30" t="s" s="276">
-        <v>167</v>
-      </c>
-      <c r="J30" t="s" s="277">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" ht="77.5" customHeight="true">
-      <c r="A31" t="s" s="278">
-        <v>146</v>
-      </c>
-      <c r="B31" t="s" s="279">
-        <v>169</v>
-      </c>
-      <c r="C31" t="s" s="280">
-        <v>170</v>
-      </c>
-      <c r="D31" t="s" s="281">
-        <v>171</v>
-      </c>
-      <c r="E31" t="s" s="282">
-        <v>141</v>
-      </c>
-      <c r="F31" t="s" s="283">
-        <v>142</v>
-      </c>
-      <c r="G31" t="s" s="284">
-        <v>133</v>
-      </c>
-      <c r="H31" t="s" s="285">
-        <v>172</v>
-      </c>
-      <c r="I31" t="s" s="286">
-        <v>173</v>
-      </c>
-      <c r="J31" t="s" s="287">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" ht="22.5" customHeight="true">
-      <c r="A32" t="s" s="288">
-        <v>176</v>
-      </c>
-      <c r="B32" t="s" s="289">
-        <v>125</v>
-      </c>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" t="s" s="290">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" ht="77.5" customHeight="true">
-      <c r="A33" t="s" s="291">
-        <v>127</v>
-      </c>
-      <c r="B33" t="s" s="292">
-        <v>150</v>
-      </c>
-      <c r="C33" t="s" s="293">
-        <v>129</v>
-      </c>
-      <c r="D33" t="s" s="294">
-        <v>163</v>
-      </c>
-      <c r="E33" t="s" s="295">
-        <v>131</v>
-      </c>
-      <c r="F33" t="s" s="296">
-        <v>152</v>
-      </c>
-      <c r="G33" t="s" s="297">
-        <v>133</v>
-      </c>
-      <c r="H33" t="s" s="298">
-        <v>153</v>
-      </c>
-      <c r="I33" t="s" s="299">
-        <v>164</v>
-      </c>
-      <c r="J33" t="s" s="300">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" ht="77.5" customHeight="true">
-      <c r="A34" t="s" s="301">
-        <v>137</v>
-      </c>
-      <c r="B34" t="s" s="302">
-        <v>138</v>
-      </c>
-      <c r="C34" t="s" s="303">
-        <v>139</v>
-      </c>
-      <c r="D34" t="s" s="304">
-        <v>166</v>
-      </c>
-      <c r="E34" t="s" s="305">
-        <v>141</v>
-      </c>
-      <c r="F34" t="s" s="306">
-        <v>142</v>
-      </c>
-      <c r="G34" t="s" s="307">
-        <v>133</v>
-      </c>
-      <c r="H34" t="s" s="308">
-        <v>143</v>
-      </c>
-      <c r="I34" t="s" s="309">
-        <v>167</v>
-      </c>
-      <c r="J34" t="s" s="310">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" ht="77.5" customHeight="true">
-      <c r="A35" t="s" s="311">
-        <v>146</v>
-      </c>
-      <c r="B35" t="s" s="312">
-        <v>169</v>
-      </c>
-      <c r="C35" t="s" s="313">
-        <v>170</v>
-      </c>
-      <c r="D35" t="s" s="314">
-        <v>171</v>
-      </c>
-      <c r="E35" t="s" s="315">
-        <v>141</v>
-      </c>
-      <c r="F35" t="s" s="316">
-        <v>142</v>
-      </c>
-      <c r="G35" t="s" s="317">
-        <v>133</v>
-      </c>
-      <c r="H35" t="s" s="318">
-        <v>172</v>
-      </c>
-      <c r="I35" t="s" s="319">
-        <v>173</v>
-      </c>
-      <c r="J35" t="s" s="320">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" ht="22.5" customHeight="true">
-      <c r="A36" t="s" s="321">
-        <v>177</v>
-      </c>
-      <c r="B36" t="s" s="322">
-        <v>125</v>
-      </c>
-      <c r="C36" s="0"/>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-      <c r="J36" t="s" s="323">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" ht="77.5" customHeight="true">
-      <c r="A37" t="s" s="324">
-        <v>127</v>
-      </c>
-      <c r="B37" t="s" s="325">
-        <v>150</v>
-      </c>
-      <c r="C37" t="s" s="326">
-        <v>129</v>
-      </c>
-      <c r="D37" t="s" s="327">
-        <v>163</v>
-      </c>
-      <c r="E37" t="s" s="328">
-        <v>131</v>
-      </c>
-      <c r="F37" t="s" s="329">
-        <v>152</v>
-      </c>
-      <c r="G37" t="s" s="330">
-        <v>133</v>
-      </c>
-      <c r="H37" t="s" s="331">
-        <v>153</v>
-      </c>
-      <c r="I37" t="s" s="332">
-        <v>164</v>
-      </c>
-      <c r="J37" t="s" s="333">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" ht="77.5" customHeight="true">
-      <c r="A38" t="s" s="334">
-        <v>137</v>
-      </c>
-      <c r="B38" t="s" s="335">
-        <v>138</v>
-      </c>
-      <c r="C38" t="s" s="336">
-        <v>139</v>
-      </c>
-      <c r="D38" t="s" s="337">
-        <v>166</v>
-      </c>
-      <c r="E38" t="s" s="338">
-        <v>141</v>
-      </c>
-      <c r="F38" t="s" s="339">
-        <v>142</v>
-      </c>
-      <c r="G38" t="s" s="340">
-        <v>133</v>
-      </c>
-      <c r="H38" t="s" s="341">
-        <v>143</v>
-      </c>
-      <c r="I38" t="s" s="342">
-        <v>167</v>
-      </c>
-      <c r="J38" t="s" s="343">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" ht="77.5" customHeight="true">
-      <c r="A39" t="s" s="344">
-        <v>146</v>
-      </c>
-      <c r="B39" t="s" s="345">
-        <v>169</v>
-      </c>
-      <c r="C39" t="s" s="346">
-        <v>170</v>
-      </c>
-      <c r="D39" t="s" s="347">
-        <v>171</v>
-      </c>
-      <c r="E39" t="s" s="348">
-        <v>141</v>
-      </c>
-      <c r="F39" t="s" s="349">
-        <v>142</v>
-      </c>
-      <c r="G39" t="s" s="350">
-        <v>133</v>
-      </c>
-      <c r="H39" t="s" s="351">
-        <v>172</v>
-      </c>
-      <c r="I39" t="s" s="352">
-        <v>173</v>
-      </c>
-      <c r="J39" t="s" s="353">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" ht="22.5" customHeight="true">
-      <c r="A40" t="s" s="354">
-        <v>178</v>
-      </c>
-      <c r="B40" t="s" s="355">
-        <v>125</v>
-      </c>
-      <c r="C40" s="0"/>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="0"/>
-      <c r="I40" s="0"/>
-      <c r="J40" t="s" s="356">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" ht="77.5" customHeight="true">
-      <c r="A41" t="s" s="357">
-        <v>127</v>
-      </c>
-      <c r="B41" t="s" s="358">
-        <v>150</v>
-      </c>
-      <c r="C41" t="s" s="359">
-        <v>129</v>
-      </c>
-      <c r="D41" t="s" s="360">
-        <v>163</v>
-      </c>
-      <c r="E41" t="s" s="361">
-        <v>131</v>
-      </c>
-      <c r="F41" t="s" s="362">
-        <v>152</v>
-      </c>
-      <c r="G41" t="s" s="363">
-        <v>133</v>
-      </c>
-      <c r="H41" t="s" s="364">
-        <v>153</v>
-      </c>
-      <c r="I41" t="s" s="365">
-        <v>164</v>
-      </c>
-      <c r="J41" t="s" s="366">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" ht="77.5" customHeight="true">
-      <c r="A42" t="s" s="367">
-        <v>137</v>
-      </c>
-      <c r="B42" t="s" s="368">
-        <v>138</v>
-      </c>
-      <c r="C42" t="s" s="369">
-        <v>139</v>
-      </c>
-      <c r="D42" t="s" s="370">
-        <v>166</v>
-      </c>
-      <c r="E42" t="s" s="371">
-        <v>141</v>
-      </c>
-      <c r="F42" t="s" s="372">
-        <v>142</v>
-      </c>
-      <c r="G42" t="s" s="373">
-        <v>133</v>
-      </c>
-      <c r="H42" t="s" s="374">
-        <v>143</v>
-      </c>
-      <c r="I42" t="s" s="375">
-        <v>167</v>
-      </c>
-      <c r="J42" t="s" s="376">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" ht="77.5" customHeight="true">
-      <c r="A43" t="s" s="377">
-        <v>146</v>
-      </c>
-      <c r="B43" t="s" s="378">
-        <v>169</v>
-      </c>
-      <c r="C43" t="s" s="379">
-        <v>170</v>
-      </c>
-      <c r="D43" t="s" s="380">
-        <v>171</v>
-      </c>
-      <c r="E43" t="s" s="381">
-        <v>141</v>
-      </c>
-      <c r="F43" t="s" s="382">
-        <v>142</v>
-      </c>
-      <c r="G43" t="s" s="383">
-        <v>133</v>
-      </c>
-      <c r="H43" t="s" s="384">
-        <v>172</v>
-      </c>
-      <c r="I43" t="s" s="385">
-        <v>173</v>
-      </c>
-      <c r="J43" t="s" s="386">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="47.85" customHeight="1">
-      <c r="A44" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="90"/>
-      <c r="C44" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="85"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="H44" s="84"/>
-      <c r="I44" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="84"/>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="1:11" ht="29.6" customHeight="true">
-      <c r="A45" s="387" t="s">
-        <v>179</v>
-      </c>
-      <c r="B45" s="91"/>
-      <c r="C45" s="388" t="s">
-        <v>180</v>
-      </c>
-      <c r="D45" s="389" t="s">
-        <v>181</v>
-      </c>
-      <c r="E45" s="87"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="390" t="s">
-        <v>182</v>
-      </c>
-      <c r="H45" s="88"/>
-      <c r="I45" s="391" t="s">
-        <v>183</v>
-      </c>
-      <c r="J45" s="88"/>
-      <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="1:11" ht="93.45" customHeight="true">
-      <c r="A46" s="392" t="s">
-        <v>184</v>
-      </c>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A47" s="82" t="s">
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A23" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="14"/>
-    </row>
-    <row r="48" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A48" s="82"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="82" t="s">
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="82"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="14"/>
-    </row>
-    <row r="49" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A49" s="82"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="14"/>
-    </row>
-    <row r="50" spans="1:11" ht="17.45" customHeight="1">
-      <c r="K50" s="14"/>
-    </row>
-    <row r="51" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K51" s="14"/>
-    </row>
-    <row r="52" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K52" s="14"/>
-    </row>
-    <row r="53" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="K53" s="14"/>
-    </row>
-    <row r="62" spans="1:11" ht="17.45" customHeight="1"/>
-    <row r="63" ht="32.85" customHeight="1"/>
-    <row r="64" ht="16.149999999999999" customHeight="1"/>
-    <row r="65" ht="16.149999999999999" customHeight="1"/>
-    <row r="66" ht="16.149999999999999" customHeight="1"/>
-    <row r="67" ht="16.149999999999999" customHeight="1"/>
-    <row r="68" ht="16.149999999999999" customHeight="1"/>
-    <row r="69" ht="72.400000000000006" customHeight="1"/>
-    <row r="70" ht="13.9" customHeight="1"/>
-    <row r="71" ht="16.149999999999999" customHeight="1"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A25" s="82"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" ht="17.45" customHeight="1">
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" ht="72.400000000000006" customHeight="1">
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" ht="72.400000000000006" customHeight="1">
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="K29" s="14"/>
+    </row>
+    <row r="38" spans="1:11" ht="17.45" customHeight="1"/>
+    <row r="39" ht="32.85" customHeight="1"/>
+    <row r="40" ht="16.149999999999999" customHeight="1"/>
+    <row r="41" ht="16.149999999999999" customHeight="1"/>
+    <row r="42" ht="16.149999999999999" customHeight="1"/>
+    <row r="43" ht="16.149999999999999" customHeight="1"/>
+    <row r="44" ht="16.149999999999999" customHeight="1"/>
+    <row r="45" ht="72.400000000000006" customHeight="1"/>
+    <row r="46" ht="13.9" customHeight="1"/>
+    <row r="47" ht="16.149999999999999" customHeight="1"/>
   </sheetData>
-  <mergeCells count="369">
+  <mergeCells count="99">
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="A1:B5"/>
     <mergeCell ref="A6:J6"/>
@@ -6988,23 +3628,17 @@
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A47:C49"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:C25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="142">
   <si>
     <t>STT</t>
   </si>
@@ -605,7 +605,7 @@
         <sz val="13.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>: 07/11/2023</t>
+      <t>: 08/11/2023</t>
     </r>
   </si>
   <si>
@@ -652,7 +652,7 @@
         <sz val="18.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>45,021,931</t>
+      <t>0</t>
     </r>
   </si>
   <si>
@@ -670,7 +670,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Ghế sofa văng</t>
+      <t>Tủ giày</t>
     </r>
   </si>
   <si>
@@ -679,7 +679,9 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Khung gỗ thông, bọc da hoặc nỉ công nghiệp Hàn Quốc, Giá trị tạm tính tính theo mẫu thực tế</t>
+      <t>Thùng , cánh: Gỗ Óc chó nhập khẩu Châu Âu, gỗ thô tiêu chuẩn dày 1 Inch, thành phẩm dày 22mm
+Hậu: Veneer óc chó 6mm
+Sơn: Pu 5 lớp, 3 lớp lót, 2 lớp màu</t>
     </r>
   </si>
   <si>
@@ -688,7 +690,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>900.0</t>
+      <t>0.0</t>
     </r>
   </si>
   <si>
@@ -697,7 +699,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>800.0</t>
+      <t>350.0</t>
     </r>
   </si>
   <si>
@@ -706,7 +708,61 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>750.0</t>
+      <t>Mét vuông</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>8,750,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Kệ tivi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>400.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>500.0</t>
     </r>
   </si>
   <si>
@@ -724,287 +780,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>3,980,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>0.9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>3,582,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Đôn ngồi sofa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>300.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>400.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Chiếc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>1,550,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>1.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>1234.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>1.234</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>4,911,320</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Ốp vách</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Vách ốp nhựa vân đá in 
-( dùng cho các tấm không có sẵn hàng, vân đối xứng,...) asldjknaklsdnsakljdn</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>5.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>5678.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Mét vuông</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>2,398,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>7.006652</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>16,801,951</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>4567.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>4.567</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>18,176,660</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>45,021,931</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>5,000,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>14,000,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>23,000,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>3,021,931</t>
+      <t>7,750,000</t>
     </r>
   </si>
   <si>
@@ -1013,7 +789,7 @@
         <sz val="13.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Chú thích:</t>
+      <t xml:space="preserve">Chú thích: </t>
     </r>
   </si>
 </sst>
@@ -1025,7 +801,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="180">
+  <fonts count="120">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1413,249 +1189,6 @@
       <name val="Times New Roman"/>
       <sz val="18.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -2062,7 +1595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2543,7 +2076,7 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="113" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -2552,96 +2085,6 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="119" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -3072,7 +2515,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -3324,7 +2767,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" ht="40.0" customHeight="true">
+    <row r="15" ht="77.5" customHeight="true">
       <c r="A15" t="s" s="139">
         <v>127</v>
       </c>
@@ -3341,271 +2784,175 @@
         <v>131</v>
       </c>
       <c r="F15" t="s" s="144">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s" s="145">
         <v>132</v>
       </c>
-      <c r="G15" t="s" s="145">
+      <c r="H15" t="s" s="146">
         <v>133</v>
       </c>
-      <c r="H15" t="s" s="146">
+      <c r="I15" t="s" s="147">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s" s="148">
         <v>134</v>
       </c>
-      <c r="I15" t="s" s="147">
+    </row>
+    <row r="16" ht="77.5" customHeight="true">
+      <c r="A16" t="s" s="149">
         <v>135</v>
       </c>
-      <c r="J15" t="s" s="148">
+      <c r="B16" t="s" s="150">
         <v>136</v>
-      </c>
-    </row>
-    <row r="16" ht="40.0" customHeight="true">
-      <c r="A16" t="s" s="149">
-        <v>137</v>
-      </c>
-      <c r="B16" t="s" s="150">
-        <v>138</v>
       </c>
       <c r="C16" t="s" s="151">
         <v>129</v>
       </c>
       <c r="D16" t="s" s="152">
+        <v>130</v>
+      </c>
+      <c r="E16" t="s" s="153">
+        <v>137</v>
+      </c>
+      <c r="F16" t="s" s="154">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s" s="155">
         <v>139</v>
       </c>
-      <c r="E16" t="s" s="153">
-        <v>139</v>
-      </c>
-      <c r="F16" t="s" s="154">
+      <c r="H16" t="s" s="156">
         <v>140</v>
       </c>
-      <c r="G16" t="s" s="155">
+      <c r="I16" t="s" s="157">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s" s="158">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="47.85" customHeight="1">
+      <c r="A17" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="90"/>
+      <c r="C17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="85"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="84"/>
+      <c r="I17" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="84"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" ht="29.6" customHeight="true">
+      <c r="A18" s="159" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="91"/>
+      <c r="C18" s="160" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="161" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="162" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="88"/>
+      <c r="I18" s="163" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" s="88"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" ht="93.45" customHeight="true">
+      <c r="A19" s="164" t="s">
         <v>141</v>
       </c>
-      <c r="H16" t="s" s="156">
-        <v>142</v>
-      </c>
-      <c r="I16" t="s" s="157">
-        <v>143</v>
-      </c>
-      <c r="J16" t="s" s="158">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" ht="40.0" customHeight="true">
-      <c r="A17" t="s" s="159">
-        <v>144</v>
-      </c>
-      <c r="B17" t="s" s="160">
-        <v>128</v>
-      </c>
-      <c r="C17" t="s" s="161">
-        <v>129</v>
-      </c>
-      <c r="D17" t="s" s="162">
-        <v>145</v>
-      </c>
-      <c r="E17" t="s" s="163">
-        <v>131</v>
-      </c>
-      <c r="F17" t="s" s="164">
-        <v>132</v>
-      </c>
-      <c r="G17" t="s" s="165">
-        <v>133</v>
-      </c>
-      <c r="H17" t="s" s="166">
-        <v>134</v>
-      </c>
-      <c r="I17" t="s" s="167">
-        <v>146</v>
-      </c>
-      <c r="J17" t="s" s="168">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" ht="77.5" customHeight="true">
-      <c r="A18" t="s" s="169">
-        <v>148</v>
-      </c>
-      <c r="B18" t="s" s="170">
-        <v>149</v>
-      </c>
-      <c r="C18" t="s" s="171">
-        <v>150</v>
-      </c>
-      <c r="D18" t="s" s="172">
-        <v>145</v>
-      </c>
-      <c r="E18" t="s" s="173">
-        <v>151</v>
-      </c>
-      <c r="F18" t="s" s="174">
-        <v>152</v>
-      </c>
-      <c r="G18" t="s" s="175">
-        <v>153</v>
-      </c>
-      <c r="H18" t="s" s="176">
-        <v>154</v>
-      </c>
-      <c r="I18" t="s" s="177">
-        <v>155</v>
-      </c>
-      <c r="J18" t="s" s="178">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" ht="40.0" customHeight="true">
-      <c r="A19" t="s" s="179">
-        <v>157</v>
-      </c>
-      <c r="B19" t="s" s="180">
-        <v>128</v>
-      </c>
-      <c r="C19" t="s" s="181">
-        <v>129</v>
-      </c>
-      <c r="D19" t="s" s="182">
-        <v>158</v>
-      </c>
-      <c r="E19" t="s" s="183">
-        <v>131</v>
-      </c>
-      <c r="F19" t="s" s="184">
-        <v>132</v>
-      </c>
-      <c r="G19" t="s" s="185">
-        <v>133</v>
-      </c>
-      <c r="H19" t="s" s="186">
-        <v>134</v>
-      </c>
-      <c r="I19" t="s" s="187">
-        <v>159</v>
-      </c>
-      <c r="J19" t="s" s="188">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="47.85" customHeight="1">
-      <c r="A20" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="84"/>
-      <c r="I20" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="84"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" ht="29.6" customHeight="true">
-      <c r="A21" s="189" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="190" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="191" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="192" t="s">
-        <v>164</v>
-      </c>
-      <c r="H21" s="88"/>
-      <c r="I21" s="193" t="s">
-        <v>165</v>
-      </c>
-      <c r="J21" s="88"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A20" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="82"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" ht="93.45" customHeight="true">
-      <c r="A22" s="194" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
+    <row r="22" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="J22" s="16"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A23" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
+    <row r="23" spans="1:11" ht="17.45" customHeight="1">
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="82"/>
-      <c r="J24" s="16"/>
+    <row r="24" spans="1:11" ht="72.400000000000006" customHeight="1">
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="J25" s="16"/>
+    <row r="25" spans="1:11" ht="72.400000000000006" customHeight="1">
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" ht="17.45" customHeight="1">
+    <row r="26" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="K29" s="14"/>
-    </row>
-    <row r="38" spans="1:11" ht="17.45" customHeight="1"/>
-    <row r="39" ht="32.85" customHeight="1"/>
+    <row r="35" spans="1:11" ht="17.45" customHeight="1"/>
+    <row r="36" ht="32.85" customHeight="1"/>
+    <row r="37" ht="16.149999999999999" customHeight="1"/>
+    <row r="38" ht="16.149999999999999" customHeight="1"/>
+    <row r="39" ht="16.149999999999999" customHeight="1"/>
     <row r="40" ht="16.149999999999999" customHeight="1"/>
     <row r="41" ht="16.149999999999999" customHeight="1"/>
-    <row r="42" ht="16.149999999999999" customHeight="1"/>
-    <row r="43" ht="16.149999999999999" customHeight="1"/>
+    <row r="42" ht="72.400000000000006" customHeight="1"/>
+    <row r="43" ht="13.9" customHeight="1"/>
     <row r="44" ht="16.149999999999999" customHeight="1"/>
-    <row r="45" ht="72.400000000000006" customHeight="1"/>
-    <row r="46" ht="13.9" customHeight="1"/>
-    <row r="47" ht="16.149999999999999" customHeight="1"/>
   </sheetData>
-  <mergeCells count="99">
+  <mergeCells count="66">
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="A1:B5"/>
     <mergeCell ref="A6:J6"/>
@@ -3628,17 +2975,17 @@
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="B14:I14"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:C25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:C22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="136">
   <si>
     <t>STT</t>
   </si>
@@ -605,7 +605,7 @@
         <sz val="13.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>: 08/11/2023</t>
+      <t>: 09/11/2023</t>
     </r>
   </si>
   <si>
@@ -642,7 +642,7 @@
         <sz val="14.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>NỘI THẤT PHÒNG KHÁCH</t>
+      <t xml:space="preserve">PHỤ KIỆN </t>
     </r>
   </si>
   <si>
@@ -652,7 +652,7 @@
         <sz val="18.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>0</t>
+      <t>87,000</t>
     </r>
   </si>
   <si>
@@ -670,7 +670,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Tủ giày</t>
+      <t>Ray ngăn kéo</t>
     </r>
   </si>
   <si>
@@ -679,9 +679,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Thùng , cánh: Gỗ Óc chó nhập khẩu Châu Âu, gỗ thô tiêu chuẩn dày 1 Inch, thành phẩm dày 22mm
-Hậu: Veneer óc chó 6mm
-Sơn: Pu 5 lớp, 3 lớp lót, 2 lớp màu</t>
+      <t>Ray bi 3 lớp sơn tĩnh điện</t>
     </r>
   </si>
   <si>
@@ -699,7 +697,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>350.0</t>
+      <t>Bộ (2 chiếc)</t>
     </r>
   </si>
   <si>
@@ -708,7 +706,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Mét vuông</t>
+      <t>87,000</t>
     </r>
   </si>
   <si>
@@ -717,7 +715,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>8,750,000</t>
+      <t>1.0</t>
     </r>
   </si>
   <si>
@@ -727,60 +725,6 @@
         <rFont val="Times New Roman"/>
       </rPr>
       <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Kệ tivi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>400.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>500.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Mét dài</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>7,750,000</t>
     </r>
   </si>
   <si>
@@ -801,7 +745,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="120">
+  <fonts count="100">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1189,87 +1133,6 @@
       <name val="Times New Roman"/>
       <sz val="18.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -1595,7 +1458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2046,7 +1909,7 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -2055,36 +1918,6 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2515,7 +2348,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -2767,7 +2600,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" ht="77.5" customHeight="true">
+    <row r="15" ht="40.0" customHeight="true">
       <c r="A15" t="s" s="139">
         <v>127</v>
       </c>
@@ -2781,129 +2614,112 @@
         <v>130</v>
       </c>
       <c r="E15" t="s" s="143">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s" s="144">
         <v>130</v>
       </c>
       <c r="G15" t="s" s="145">
+        <v>131</v>
+      </c>
+      <c r="H15" t="s" s="146">
         <v>132</v>
       </c>
-      <c r="H15" t="s" s="146">
+      <c r="I15" t="s" s="147">
         <v>133</v>
       </c>
-      <c r="I15" t="s" s="147">
-        <v>130</v>
-      </c>
       <c r="J15" t="s" s="148">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="47.85" customHeight="1">
+      <c r="A16" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="90"/>
+      <c r="C16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="85"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="84"/>
+      <c r="I16" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="84"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" ht="29.6" customHeight="true">
+      <c r="A17" s="149" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="91"/>
+      <c r="C17" s="150" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" ht="77.5" customHeight="true">
-      <c r="A16" t="s" s="149">
+      <c r="D17" s="151" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="152" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="88"/>
+      <c r="I17" s="153" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="88"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" ht="93.45" customHeight="true">
+      <c r="A18" s="154" t="s">
         <v>135</v>
       </c>
-      <c r="B16" t="s" s="150">
-        <v>136</v>
-      </c>
-      <c r="C16" t="s" s="151">
-        <v>129</v>
-      </c>
-      <c r="D16" t="s" s="152">
-        <v>130</v>
-      </c>
-      <c r="E16" t="s" s="153">
-        <v>137</v>
-      </c>
-      <c r="F16" t="s" s="154">
-        <v>138</v>
-      </c>
-      <c r="G16" t="s" s="155">
-        <v>139</v>
-      </c>
-      <c r="H16" t="s" s="156">
-        <v>140</v>
-      </c>
-      <c r="I16" t="s" s="157">
-        <v>130</v>
-      </c>
-      <c r="J16" t="s" s="158">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="47.85" customHeight="1">
-      <c r="A17" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="84"/>
-      <c r="I17" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="84"/>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11" ht="29.6" customHeight="true">
-      <c r="A18" s="159" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="160" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="161" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="162" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="88"/>
-      <c r="I18" s="163" t="s">
-        <v>134</v>
-      </c>
-      <c r="J18" s="88"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" ht="93.45" customHeight="true">
-      <c r="A19" s="164" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
+    <row r="19" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A19" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A20" s="82" t="s">
-        <v>15</v>
-      </c>
+      <c r="A20" s="82"/>
       <c r="B20" s="82"/>
       <c r="C20" s="82"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="H20" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="82"/>
       <c r="J20" s="16"/>
       <c r="K20" s="14"/>
     </row>
@@ -2911,48 +2727,33 @@
       <c r="A21" s="82"/>
       <c r="B21" s="82"/>
       <c r="C21" s="82"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="82"/>
       <c r="J21" s="16"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="J22" s="16"/>
+    <row r="22" spans="1:11" ht="17.45" customHeight="1">
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" ht="17.45" customHeight="1">
+    <row r="23" spans="1:11" ht="72.400000000000006" customHeight="1">
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" ht="72.400000000000006" customHeight="1">
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" ht="72.400000000000006" customHeight="1">
+    <row r="25" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="K26" s="14"/>
-    </row>
-    <row r="35" spans="1:11" ht="17.45" customHeight="1"/>
-    <row r="36" ht="32.85" customHeight="1"/>
+    <row r="34" spans="1:11" ht="17.45" customHeight="1"/>
+    <row r="35" ht="32.85" customHeight="1"/>
+    <row r="36" ht="16.149999999999999" customHeight="1"/>
     <row r="37" ht="16.149999999999999" customHeight="1"/>
     <row r="38" ht="16.149999999999999" customHeight="1"/>
     <row r="39" ht="16.149999999999999" customHeight="1"/>
     <row r="40" ht="16.149999999999999" customHeight="1"/>
-    <row r="41" ht="16.149999999999999" customHeight="1"/>
-    <row r="42" ht="72.400000000000006" customHeight="1"/>
-    <row r="43" ht="13.9" customHeight="1"/>
-    <row r="44" ht="16.149999999999999" customHeight="1"/>
+    <row r="41" ht="72.400000000000006" customHeight="1"/>
+    <row r="42" ht="13.9" customHeight="1"/>
+    <row r="43" ht="16.149999999999999" customHeight="1"/>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="55">
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="A1:B5"/>
     <mergeCell ref="A6:J6"/>
@@ -2975,17 +2776,17 @@
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="B14:I14"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:C22"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:C21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="126">
   <si>
     <t>STT</t>
   </si>
@@ -628,99 +628,6 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>I</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">PHỤ KIỆN </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="18.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>87,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Ray ngăn kéo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Ray bi 3 lớp sơn tĩnh điện</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>0.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Bộ (2 chiếc)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>87,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>1.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
@@ -745,7 +652,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="100">
+  <fonts count="74">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1103,117 +1010,6 @@
       <name val="Times New Roman"/>
       <sz val="13.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -1458,7 +1254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1879,45 +1675,6 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2348,7 +2105,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -2582,179 +2339,131 @@
       <c r="J13" s="94"/>
       <c r="K13" s="89"/>
     </row>
-    <row r="14" ht="22.5" customHeight="true">
-      <c r="A14" t="s" s="136">
+    <row r="14" spans="1:11" ht="47.85" customHeight="1">
+      <c r="A14" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="90"/>
+      <c r="C14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="85"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="84"/>
+      <c r="I14" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="84"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" ht="29.6" customHeight="true">
+      <c r="A15" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="B14" t="s" s="137">
+      <c r="B15" s="91"/>
+      <c r="C15" s="137" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="138" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="139" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="88"/>
+      <c r="I15" s="140" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="88"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" ht="93.45" customHeight="true">
+      <c r="A16" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" t="s" s="138">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" ht="40.0" customHeight="true">
-      <c r="A15" t="s" s="139">
-        <v>127</v>
-      </c>
-      <c r="B15" t="s" s="140">
-        <v>128</v>
-      </c>
-      <c r="C15" t="s" s="141">
-        <v>129</v>
-      </c>
-      <c r="D15" t="s" s="142">
-        <v>130</v>
-      </c>
-      <c r="E15" t="s" s="143">
-        <v>130</v>
-      </c>
-      <c r="F15" t="s" s="144">
-        <v>130</v>
-      </c>
-      <c r="G15" t="s" s="145">
-        <v>131</v>
-      </c>
-      <c r="H15" t="s" s="146">
-        <v>132</v>
-      </c>
-      <c r="I15" t="s" s="147">
-        <v>133</v>
-      </c>
-      <c r="J15" t="s" s="148">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="47.85" customHeight="1">
-      <c r="A16" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="84"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" ht="29.6" customHeight="true">
-      <c r="A17" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="150" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="151" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="152" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="88"/>
-      <c r="I17" s="153" t="s">
-        <v>132</v>
-      </c>
-      <c r="J17" s="88"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A17" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="93.45" customHeight="true">
-      <c r="A18" s="154" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
+    <row r="18" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="82"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A19" s="82" t="s">
-        <v>15</v>
-      </c>
+      <c r="A19" s="82"/>
       <c r="B19" s="82"/>
       <c r="C19" s="82"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
       <c r="J19" s="16"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="82"/>
-      <c r="J20" s="16"/>
+    <row r="20" spans="1:11" ht="17.45" customHeight="1">
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="J21" s="16"/>
+    <row r="21" spans="1:11" ht="72.400000000000006" customHeight="1">
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" ht="17.45" customHeight="1">
+    <row r="22" spans="1:11" ht="72.400000000000006" customHeight="1">
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" ht="72.400000000000006" customHeight="1">
+    <row r="23" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="K25" s="14"/>
-    </row>
-    <row r="34" spans="1:11" ht="17.45" customHeight="1"/>
-    <row r="35" ht="32.85" customHeight="1"/>
+    <row r="32" spans="1:11" ht="17.45" customHeight="1"/>
+    <row r="33" ht="32.85" customHeight="1"/>
+    <row r="34" ht="16.149999999999999" customHeight="1"/>
+    <row r="35" ht="16.149999999999999" customHeight="1"/>
     <row r="36" ht="16.149999999999999" customHeight="1"/>
     <row r="37" ht="16.149999999999999" customHeight="1"/>
     <row r="38" ht="16.149999999999999" customHeight="1"/>
-    <row r="39" ht="16.149999999999999" customHeight="1"/>
-    <row r="40" ht="16.149999999999999" customHeight="1"/>
-    <row r="41" ht="72.400000000000006" customHeight="1"/>
-    <row r="42" ht="13.9" customHeight="1"/>
-    <row r="43" ht="16.149999999999999" customHeight="1"/>
+    <row r="39" ht="72.400000000000006" customHeight="1"/>
+    <row r="40" ht="13.9" customHeight="1"/>
+    <row r="41" ht="16.149999999999999" customHeight="1"/>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="32">
     <mergeCell ref="K12:K13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:B5"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A12:A13"/>
@@ -2765,6 +2474,15 @@
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:C19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:J3"/>
@@ -2775,18 +2493,6 @@
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:C21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,10 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name=" Gỗ Veener" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Chỉ tủ bếp dưới" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="Sheet1 (2)" r:id="rId8" sheetId="4"/>
-    <sheet name="Sheet1 (3)" r:id="rId9" sheetId="5"/>
-    <sheet name="Sheet1 (4)" r:id="rId10" sheetId="6"/>
-    <sheet name="Sheet1 (5)" r:id="rId11" sheetId="7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="183">
   <si>
     <t>STT</t>
   </si>
@@ -639,10 +635,544 @@
   <si>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
+      <t>I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>NỘI THẤT PHÒNG KHÁCH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="18.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>15,537,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Sofa tân cổ Italia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Khung gỗ thông, bọc da hoặc nỉ công nghiệp Hàn Quốc, Giá trị tạm tính tính theo mẫu thực tế</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>800.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>750.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Mét dài</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>6,381,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
       <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Đôn ngồi sofa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>300.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>450.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Chiếc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2,670,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Ghế ngồi sofa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>600.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Bộ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>3,540,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Bàn trà </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Giá trị ước tính ý nghĩa tham khảo, giá trị thực tính theo mẫu 3D hoặc lựa chọn mẫu thực tế</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>500.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>60.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>9,327,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Ốp tường</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Vách ốp nhựa in Bóng gương
+( In tranh, vân đá đối xứng, ...)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>5.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Mét vuông</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1,398,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Kệ tivi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">-Cánh: MDF chống ẩm  An Cường 25mm phủ sơn Inchem 5 lớp, soi họa tiết CNC
+-Thùng: MDF chống ẩm  An Cường 17mm  phủ sơn Inchem 5 lớp
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Hậu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">: MDF chống ẩm  An Cường 6mm  phủ sơn Inchem 5 lớp </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>400.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>3,450,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Tủ trang trí (tủ rượu)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>350.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>3,180,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Tủ giày Gỗ CN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>3,440,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Đợt trang trí</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> MDF chống ẩm  An Cường phủ sơn Inchem 5 lớp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>34.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>550,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>15,537,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2,000,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>5,000,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>8,000,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>537,000</t>
     </r>
   </si>
   <si>
@@ -663,7 +1193,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="74">
+  <fonts count="263">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1021,6 +1551,780 @@
       <name val="Times New Roman"/>
       <sz val="13.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -1265,7 +2569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1686,6 +2990,285 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2116,7 +3699,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -2350,131 +3933,435 @@
       <c r="J13" s="94"/>
       <c r="K13" s="89"/>
     </row>
-    <row r="14" spans="1:11" ht="47.85" customHeight="1">
-      <c r="A14" s="90" t="s">
+    <row r="14" ht="22.5" customHeight="true">
+      <c r="A14" t="s" s="136">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s" s="137">
+        <v>125</v>
+      </c>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" t="s" s="138">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" ht="40.0" customHeight="true">
+      <c r="A15" t="s" s="139">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s" s="140">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s" s="141">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s" s="142">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s" s="143">
+        <v>131</v>
+      </c>
+      <c r="F15" t="s" s="144">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s" s="145">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s" s="146">
+        <v>134</v>
+      </c>
+      <c r="I15" t="s" s="147">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s" s="148">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" ht="40.0" customHeight="true">
+      <c r="A16" t="s" s="149">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s" s="150">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s" s="151">
+        <v>129</v>
+      </c>
+      <c r="D16" t="s" s="152">
+        <v>138</v>
+      </c>
+      <c r="E16" t="s" s="153">
+        <v>138</v>
+      </c>
+      <c r="F16" t="s" s="154">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s" s="155">
+        <v>140</v>
+      </c>
+      <c r="H16" t="s" s="156">
+        <v>141</v>
+      </c>
+      <c r="I16" t="s" s="157">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s" s="158">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" ht="40.0" customHeight="true">
+      <c r="A17" t="s" s="159">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s" s="160">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s" s="161">
+        <v>129</v>
+      </c>
+      <c r="D17" t="s" s="162">
+        <v>131</v>
+      </c>
+      <c r="E17" t="s" s="163">
+        <v>145</v>
+      </c>
+      <c r="F17" t="s" s="164">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s" s="165">
+        <v>146</v>
+      </c>
+      <c r="H17" t="s" s="166">
+        <v>147</v>
+      </c>
+      <c r="I17" t="s" s="167">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s" s="168">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" ht="40.0" customHeight="true">
+      <c r="A18" t="s" s="169">
+        <v>148</v>
+      </c>
+      <c r="B18" t="s" s="170">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s" s="171">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s" s="172">
+        <v>151</v>
+      </c>
+      <c r="E18" t="s" s="173">
+        <v>152</v>
+      </c>
+      <c r="F18" t="s" s="174">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s" s="175">
+        <v>140</v>
+      </c>
+      <c r="H18" t="s" s="176">
+        <v>153</v>
+      </c>
+      <c r="I18" t="s" s="177">
+        <v>142</v>
+      </c>
+      <c r="J18" t="s" s="178">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" ht="40.0" customHeight="true">
+      <c r="A19" t="s" s="179">
+        <v>154</v>
+      </c>
+      <c r="B19" t="s" s="180">
+        <v>155</v>
+      </c>
+      <c r="C19" t="s" s="181">
+        <v>156</v>
+      </c>
+      <c r="D19" t="s" s="182">
+        <v>130</v>
+      </c>
+      <c r="E19" t="s" s="183">
+        <v>157</v>
+      </c>
+      <c r="F19" t="s" s="184">
+        <v>130</v>
+      </c>
+      <c r="G19" t="s" s="185">
+        <v>158</v>
+      </c>
+      <c r="H19" t="s" s="186">
+        <v>159</v>
+      </c>
+      <c r="I19" t="s" s="187">
+        <v>130</v>
+      </c>
+      <c r="J19" t="s" s="188">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" ht="77.5" customHeight="true">
+      <c r="A20" t="s" s="189">
+        <v>160</v>
+      </c>
+      <c r="B20" t="s" s="190">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s" s="191">
+        <v>162</v>
+      </c>
+      <c r="D20" t="s" s="192">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s" s="193">
+        <v>163</v>
+      </c>
+      <c r="F20" t="s" s="194">
+        <v>151</v>
+      </c>
+      <c r="G20" t="s" s="195">
+        <v>133</v>
+      </c>
+      <c r="H20" t="s" s="196">
+        <v>164</v>
+      </c>
+      <c r="I20" t="s" s="197">
+        <v>130</v>
+      </c>
+      <c r="J20" t="s" s="198">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" ht="77.5" customHeight="true">
+      <c r="A21" t="s" s="199">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s" s="200">
+        <v>166</v>
+      </c>
+      <c r="C21" t="s" s="201">
+        <v>162</v>
+      </c>
+      <c r="D21" t="s" s="202">
+        <v>130</v>
+      </c>
+      <c r="E21" t="s" s="203">
+        <v>167</v>
+      </c>
+      <c r="F21" t="s" s="204">
+        <v>130</v>
+      </c>
+      <c r="G21" t="s" s="205">
+        <v>158</v>
+      </c>
+      <c r="H21" t="s" s="206">
+        <v>168</v>
+      </c>
+      <c r="I21" t="s" s="207">
+        <v>130</v>
+      </c>
+      <c r="J21" t="s" s="208">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" ht="77.5" customHeight="true">
+      <c r="A22" t="s" s="209">
+        <v>169</v>
+      </c>
+      <c r="B22" t="s" s="210">
+        <v>170</v>
+      </c>
+      <c r="C22" t="s" s="211">
+        <v>162</v>
+      </c>
+      <c r="D22" t="s" s="212">
+        <v>130</v>
+      </c>
+      <c r="E22" t="s" s="213">
+        <v>167</v>
+      </c>
+      <c r="F22" t="s" s="214">
+        <v>130</v>
+      </c>
+      <c r="G22" t="s" s="215">
+        <v>158</v>
+      </c>
+      <c r="H22" t="s" s="216">
+        <v>171</v>
+      </c>
+      <c r="I22" t="s" s="217">
+        <v>130</v>
+      </c>
+      <c r="J22" t="s" s="218">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" ht="40.0" customHeight="true">
+      <c r="A23" t="s" s="219">
+        <v>172</v>
+      </c>
+      <c r="B23" t="s" s="220">
+        <v>173</v>
+      </c>
+      <c r="C23" t="s" s="221">
+        <v>174</v>
+      </c>
+      <c r="D23" t="s" s="222">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s" s="223">
+        <v>167</v>
+      </c>
+      <c r="F23" t="s" s="224">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s" s="225">
+        <v>133</v>
+      </c>
+      <c r="H23" t="s" s="226">
+        <v>176</v>
+      </c>
+      <c r="I23" t="s" s="227">
+        <v>130</v>
+      </c>
+      <c r="J23" t="s" s="228">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="47.85" customHeight="1">
+      <c r="A24" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="11" t="s">
+      <c r="B24" s="90"/>
+      <c r="C24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D24" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="83" t="s">
+      <c r="E24" s="85"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="84"/>
-      <c r="I14" s="83" t="s">
+      <c r="H24" s="84"/>
+      <c r="I24" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="84"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" ht="29.6" customHeight="true">
-      <c r="A15" s="136" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="138" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="139" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="140" t="s">
-        <v>124</v>
-      </c>
-      <c r="J15" s="88"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="93.45" customHeight="true">
-      <c r="A16" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A17" s="82" t="s">
+      <c r="J24" s="84"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" ht="29.6" customHeight="true">
+      <c r="A25" s="229" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="91"/>
+      <c r="C25" s="230" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="231" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="87"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="232" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" s="88"/>
+      <c r="I25" s="233" t="s">
+        <v>181</v>
+      </c>
+      <c r="J25" s="88"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" ht="93.45" customHeight="true">
+      <c r="A26" s="234" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A27" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="82" t="s">
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" ht="17.45" customHeight="1">
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="K23" s="14"/>
-    </row>
-    <row r="32" spans="1:11" ht="17.45" customHeight="1"/>
-    <row r="33" ht="32.85" customHeight="1"/>
-    <row r="34" ht="16.149999999999999" customHeight="1"/>
-    <row r="35" ht="16.149999999999999" customHeight="1"/>
-    <row r="36" ht="16.149999999999999" customHeight="1"/>
-    <row r="37" ht="16.149999999999999" customHeight="1"/>
-    <row r="38" ht="16.149999999999999" customHeight="1"/>
-    <row r="39" ht="72.400000000000006" customHeight="1"/>
-    <row r="40" ht="13.9" customHeight="1"/>
-    <row r="41" ht="16.149999999999999" customHeight="1"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="A29" s="82"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" ht="17.45" customHeight="1">
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" ht="72.400000000000006" customHeight="1">
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11" ht="72.400000000000006" customHeight="1">
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="K33" s="14"/>
+    </row>
+    <row r="42" spans="1:11" ht="17.45" customHeight="1"/>
+    <row r="43" ht="32.85" customHeight="1"/>
+    <row r="44" ht="16.149999999999999" customHeight="1"/>
+    <row r="45" ht="16.149999999999999" customHeight="1"/>
+    <row r="46" ht="16.149999999999999" customHeight="1"/>
+    <row r="47" ht="16.149999999999999" customHeight="1"/>
+    <row r="48" ht="16.149999999999999" customHeight="1"/>
+    <row r="49" ht="72.400000000000006" customHeight="1"/>
+    <row r="50" ht="13.9" customHeight="1"/>
+    <row r="51" ht="16.149999999999999" customHeight="1"/>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="143">
     <mergeCell ref="K12:K13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:B5"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A12:A13"/>
@@ -2485,15 +4372,6 @@
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:C19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:J3"/>
@@ -2504,6 +4382,18 @@
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:C29"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4242,1440 +6132,4 @@
     <oddFooter>&amp;RV1.0.08.2020</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K41"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="11.5703125"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125"/>
-    <col min="3" max="3" customWidth="true" width="50.140625"/>
-    <col min="4" max="6" customWidth="true" width="11.42578125"/>
-    <col min="7" max="7" customWidth="true" width="13.85546875"/>
-    <col min="8" max="8" customWidth="true" width="20.0"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875"/>
-    <col min="10" max="10" customWidth="true" width="20.0"/>
-    <col min="11" max="11" customWidth="true" hidden="true" width="37.140625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="22.15" customHeight="1">
-      <c r="A6" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="89" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="89"/>
-    </row>
-    <row r="14" spans="1:11" ht="47.85" customHeight="1">
-      <c r="A14" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="84"/>
-      <c r="I14" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="84"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="90.95" customHeight="1">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A17" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" ht="17.45" customHeight="1">
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="K23" s="14"/>
-    </row>
-    <row r="32" spans="1:11" ht="17.45" customHeight="1"/>
-    <row r="33" ht="32.85" customHeight="1"/>
-    <row r="34" ht="16.149999999999999" customHeight="1"/>
-    <row r="35" ht="16.149999999999999" customHeight="1"/>
-    <row r="36" ht="16.149999999999999" customHeight="1"/>
-    <row r="37" ht="16.149999999999999" customHeight="1"/>
-    <row r="38" ht="16.149999999999999" customHeight="1"/>
-    <row r="39" ht="72.400000000000006" customHeight="1"/>
-    <row r="40" ht="13.9" customHeight="1"/>
-    <row r="41" ht="16.149999999999999" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:B5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:C19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0"/>
-  <headerFooter>
-    <oddFooter>&amp;RV1.0.08.2020</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K41"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="11.5703125"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125"/>
-    <col min="3" max="3" customWidth="true" width="50.140625"/>
-    <col min="4" max="6" customWidth="true" width="11.42578125"/>
-    <col min="7" max="7" customWidth="true" width="13.85546875"/>
-    <col min="8" max="8" customWidth="true" width="20.0"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875"/>
-    <col min="10" max="10" customWidth="true" width="20.0"/>
-    <col min="11" max="11" customWidth="true" hidden="true" width="37.140625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="22.15" customHeight="1">
-      <c r="A6" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="89" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="89"/>
-    </row>
-    <row r="14" spans="1:11" ht="47.85" customHeight="1">
-      <c r="A14" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="84"/>
-      <c r="I14" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="84"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="90.95" customHeight="1">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A17" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" ht="17.45" customHeight="1">
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="K23" s="14"/>
-    </row>
-    <row r="32" spans="1:11" ht="17.45" customHeight="1"/>
-    <row r="33" ht="32.85" customHeight="1"/>
-    <row r="34" ht="16.149999999999999" customHeight="1"/>
-    <row r="35" ht="16.149999999999999" customHeight="1"/>
-    <row r="36" ht="16.149999999999999" customHeight="1"/>
-    <row r="37" ht="16.149999999999999" customHeight="1"/>
-    <row r="38" ht="16.149999999999999" customHeight="1"/>
-    <row r="39" ht="72.400000000000006" customHeight="1"/>
-    <row r="40" ht="13.9" customHeight="1"/>
-    <row r="41" ht="16.149999999999999" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:B5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:C19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0"/>
-  <headerFooter>
-    <oddFooter>&amp;RV1.0.08.2020</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K41"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="11.5703125"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125"/>
-    <col min="3" max="3" customWidth="true" width="50.140625"/>
-    <col min="4" max="6" customWidth="true" width="11.42578125"/>
-    <col min="7" max="7" customWidth="true" width="13.85546875"/>
-    <col min="8" max="8" customWidth="true" width="20.0"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875"/>
-    <col min="10" max="10" customWidth="true" width="20.0"/>
-    <col min="11" max="11" customWidth="true" hidden="true" width="37.140625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="22.15" customHeight="1">
-      <c r="A6" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="89" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="89"/>
-    </row>
-    <row r="14" spans="1:11" ht="47.85" customHeight="1">
-      <c r="A14" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="84"/>
-      <c r="I14" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="84"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="90.95" customHeight="1">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A17" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" ht="17.45" customHeight="1">
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="K23" s="14"/>
-    </row>
-    <row r="32" spans="1:11" ht="17.45" customHeight="1"/>
-    <row r="33" ht="32.85" customHeight="1"/>
-    <row r="34" ht="16.149999999999999" customHeight="1"/>
-    <row r="35" ht="16.149999999999999" customHeight="1"/>
-    <row r="36" ht="16.149999999999999" customHeight="1"/>
-    <row r="37" ht="16.149999999999999" customHeight="1"/>
-    <row r="38" ht="16.149999999999999" customHeight="1"/>
-    <row r="39" ht="72.400000000000006" customHeight="1"/>
-    <row r="40" ht="13.9" customHeight="1"/>
-    <row r="41" ht="16.149999999999999" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:B5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:C19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0"/>
-  <headerFooter>
-    <oddFooter>&amp;RV1.0.08.2020</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K41"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="11.5703125"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125"/>
-    <col min="3" max="3" customWidth="true" width="50.140625"/>
-    <col min="4" max="6" customWidth="true" width="11.42578125"/>
-    <col min="7" max="7" customWidth="true" width="13.85546875"/>
-    <col min="8" max="8" customWidth="true" width="20.0"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875"/>
-    <col min="10" max="10" customWidth="true" width="20.0"/>
-    <col min="11" max="11" customWidth="true" hidden="true" width="37.140625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="29.1" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="22.15" customHeight="1">
-      <c r="A6" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="89" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="89"/>
-    </row>
-    <row r="14" spans="1:11" ht="47.85" customHeight="1">
-      <c r="A14" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="84"/>
-      <c r="I14" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="84"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="90.95" customHeight="1">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A17" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" ht="17.45" customHeight="1">
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="72.400000000000006" customHeight="1">
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.149999999999999" customHeight="1">
-      <c r="K23" s="14"/>
-    </row>
-    <row r="32" spans="1:11" ht="17.45" customHeight="1"/>
-    <row r="33" ht="32.85" customHeight="1"/>
-    <row r="34" ht="16.149999999999999" customHeight="1"/>
-    <row r="35" ht="16.149999999999999" customHeight="1"/>
-    <row r="36" ht="16.149999999999999" customHeight="1"/>
-    <row r="37" ht="16.149999999999999" customHeight="1"/>
-    <row r="38" ht="16.149999999999999" customHeight="1"/>
-    <row r="39" ht="72.400000000000006" customHeight="1"/>
-    <row r="40" ht="13.9" customHeight="1"/>
-    <row r="41" ht="16.149999999999999" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:B5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:C19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0"/>
-  <headerFooter>
-    <oddFooter>&amp;RV1.0.08.2020</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
   <si>
     <t xml:space="preserve">Báo Giá Nội Thất</t>
   </si>
@@ -247,10 +247,760 @@
   <si>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>NỘI THẤT PHÒNG BẾP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="18.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>39,789,185</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Tủ bếp dưới </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Thùng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">: nhựa Picomat 17mm chống nước tuyệt đối. 
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Cánh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">: MDF chống ẩm 17mm phủ Melamine An Cường.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Hậu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>: Nhôm Alu dày 3mm chống nước tuyệt đối</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>600</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>870</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Mét dài</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2,550,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0.999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2,547,450</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Tủ bếp trên </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Thùng và cánh: MDF chống ẩm 17mm phủ Melamine An Cường
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Hậu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>: Nhôm Alu dày 3mm chống nước tuyệt đối</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>12321</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>350</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>800</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1,800,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>12.321</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>22,177,800</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Tủ bếp kịch trần/ tầng 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>400</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1,435,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0.111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>159,285</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Bàn đảo bếp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">-Thùng: nhựa Picomat 17mm  chống nước tuyệt đối
+-Cánh: MDF chống ẩm 17mm phủ Melamine An Cường 
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Mặt lộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">: MDF chống ẩm 17mm phủ Melamine An Cường </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2222</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>3,550,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2.222</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>7,888,100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Đợt trang trí</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>MDF chống ẩm phủ melamin An Cường</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>333</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>250</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>350,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0.333</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>116,550</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Bàn ăn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Giá trị ước tính ý nghĩa tham khảo, giá trị thực tính theo mẫu 3D hoặc lựa chọn mẫu thực tế</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1800</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>750</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Bộ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>5,350,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Ghế ăn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>500</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>900</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Chiếc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1,550,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Tủ trang trí (tủ rượu)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Thùng cánh: MDF chống ẩm 17mm phủ Melamine An Cường
+Hậu: MDF chống ẩm 6mm phủ Melamin An Cường</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Mét vuông</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1,950,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Ốp tường</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Gương trang trí nghệ thuật</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>39,789,185</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>4,000,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>8,000,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>28,000,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>-210,815</t>
     </r>
   </si>
   <si>
@@ -272,7 +1022,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="252">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -545,6 +1295,795 @@
       <name val="Times New Roman"/>
       <sz val="13.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -701,7 +2240,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="133">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -843,7 +2382,286 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -966,7 +2784,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
@@ -1200,128 +3018,434 @@
       <c r="J13" s="12"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+    <row r="14" ht="22.5" customHeight="true">
+      <c r="A14" t="s" s="34">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s" s="35">
+        <v>31</v>
+      </c>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" t="s" s="36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" ht="82.5" customHeight="true">
+      <c r="A15" t="s" s="37">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s" s="38">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s" s="39">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s" s="40">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s" s="41">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s" s="42">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s" s="43">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s" s="44">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s" s="45">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s" s="46">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" ht="67.5" customHeight="true">
+      <c r="A16" t="s" s="47">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s" s="48">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s" s="49">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s" s="50">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s" s="51">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s" s="52">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s" s="53">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s" s="54">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s" s="55">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s" s="56">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" ht="67.5" customHeight="true">
+      <c r="A17" t="s" s="57">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s" s="58">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s" s="59">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s" s="60">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s" s="61">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s" s="62">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s" s="63">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s" s="64">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s" s="65">
+        <v>57</v>
+      </c>
+      <c r="J17" t="s" s="66">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" ht="82.5" customHeight="true">
+      <c r="A18" t="s" s="67">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s" s="68">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s" s="69">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s" s="70">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s" s="71">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s" s="72">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s" s="73">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s" s="74">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s" s="75">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s" s="76">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" ht="40.0" customHeight="true">
+      <c r="A19" t="s" s="77">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s" s="78">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s" s="79">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s" s="80">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s" s="81">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s" s="82">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s" s="83">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s" s="84">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s" s="85">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s" s="86">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" ht="40.0" customHeight="true">
+      <c r="A20" t="s" s="87">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s" s="88">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s" s="89">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s" s="90">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s" s="91">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s" s="92">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s" s="93">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s" s="94">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s" s="95">
+        <v>82</v>
+      </c>
+      <c r="J20" t="s" s="96">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" ht="40.0" customHeight="true">
+      <c r="A21" t="s" s="97">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s" s="98">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s" s="99">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s" s="100">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s" s="101">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s" s="102">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s" s="103">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s" s="104">
+        <v>89</v>
+      </c>
+      <c r="I21" t="s" s="105">
+        <v>82</v>
+      </c>
+      <c r="J21" t="s" s="106">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" ht="67.5" customHeight="true">
+      <c r="A22" t="s" s="107">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s" s="108">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s" s="109">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s" s="110">
+        <v>93</v>
+      </c>
+      <c r="E22" t="s" s="111">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s" s="112">
+        <v>93</v>
+      </c>
+      <c r="G22" t="s" s="113">
+        <v>94</v>
+      </c>
+      <c r="H22" t="s" s="114">
+        <v>95</v>
+      </c>
+      <c r="I22" t="s" s="115">
+        <v>96</v>
+      </c>
+      <c r="J22" t="s" s="116">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" ht="40.0" customHeight="true">
+      <c r="A23" t="s" s="117">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s" s="118">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s" s="119">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s" s="120">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s" s="121">
+        <v>90</v>
+      </c>
+      <c r="F23" t="s" s="122">
+        <v>93</v>
+      </c>
+      <c r="G23" t="s" s="123">
+        <v>94</v>
+      </c>
+      <c r="H23" t="s" s="124">
+        <v>89</v>
+      </c>
+      <c r="I23" t="s" s="125">
+        <v>96</v>
+      </c>
+      <c r="J23" t="s" s="126">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15" t="s">
+      <c r="H24" s="15"/>
+      <c r="I24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
     </row>
-    <row r="15" customFormat="false" ht="29.0" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
+    <row r="25" customFormat="false" ht="29.0" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="129" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="130" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="131" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="93.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="19"/>
+    <row r="26" customFormat="false" ht="93.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="132" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="19"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="19"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="21" t="s">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="19"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="19"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="19"/>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="19"/>
     </row>
-    <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K20" s="19"/>
+    <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K30" s="19"/>
     </row>
-    <row r="21" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K21" s="19"/>
+    <row r="31" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K31" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K22" s="19"/>
+    <row r="32" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K32" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K23" s="19"/>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K33" s="19"/>
     </row>
-    <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="143">
     <mergeCell ref="A1:B5"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A12:A13"/>
@@ -1333,17 +3457,6 @@
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:C19"/>
-    <mergeCell ref="H18:I18"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:J3"/>
@@ -1354,6 +3467,18 @@
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:C29"/>
+    <mergeCell ref="H28:I28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tab mới" r:id="rId4" sheetId="2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
   <si>
     <t xml:space="preserve">Báo Giá Nội Thất</t>
   </si>
@@ -88,7 +88,7 @@
         <sz val="18.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>long</t>
+      <t>test company</t>
     </r>
   </si>
   <si>
@@ -105,7 +105,7 @@
         <sz val="13.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>: long</t>
+      <t>: test</t>
     </r>
   </si>
   <si>
@@ -122,7 +122,7 @@
         <sz val="13.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>: long</t>
+      <t>: test</t>
     </r>
   </si>
   <si>
@@ -139,7 +139,7 @@
         <sz val="13.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>: 9123123123</t>
+      <t>: test</t>
     </r>
   </si>
   <si>
@@ -156,7 +156,7 @@
         <sz val="13.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>: long</t>
+      <t>: test</t>
     </r>
   </si>
   <si>
@@ -224,7 +224,7 @@
         <sz val="13.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>: 21/11/2023</t>
+      <t>: 01/01/2024</t>
     </r>
   </si>
   <si>
@@ -271,7 +271,7 @@
         <sz val="18.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>39,789,185</t>
+      <t>6,900,000</t>
     </r>
   </si>
   <si>
@@ -354,7 +354,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>999</t>
+      <t>0</t>
     </r>
   </si>
   <si>
@@ -399,16 +399,7 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>0.999</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>2,547,450</t>
+      <t>0.0</t>
     </r>
   </si>
   <si>
@@ -460,15 +451,6 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>12321</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
       <t>350</t>
     </r>
   </si>
@@ -496,24 +478,6 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>12.321</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>22,177,800</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
       <t>3</t>
     </r>
   </si>
@@ -532,15 +496,6 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>111</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
       <t>400</t>
     </r>
   </si>
@@ -551,24 +506,6 @@
         <rFont val="Times New Roman"/>
       </rPr>
       <t>1,435,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>0.111</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>159,285</t>
     </r>
   </si>
   <si>
@@ -621,15 +558,6 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>2222</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
       <t>3,550,000</t>
     </r>
   </si>
@@ -639,24 +567,6 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>2.222</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>7,888,100</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
       <t>5</t>
     </r>
   </si>
@@ -684,15 +594,6 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>333</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
       <t>250</t>
     </r>
   </si>
@@ -712,24 +613,6 @@
         <rFont val="Times New Roman"/>
       </rPr>
       <t>350,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>0.333</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>116,550</t>
     </r>
   </si>
   <si>
@@ -901,15 +784,6 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
       <t>Mét vuông</t>
     </r>
   </si>
@@ -928,15 +802,6 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>0.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
       <t>9</t>
     </r>
   </si>
@@ -964,43 +829,34 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>39,789,185</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>4,000,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>8,000,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>28,000,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>-210,815</t>
+      <t>6,900,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>1,000,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>3,000,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>-100,000</t>
     </r>
   </si>
   <si>
@@ -1009,7 +865,7 @@
         <sz val="13.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Chú thích: alo alo test</t>
+      <t>Chú thích: alo alo test asdasdassadasd</t>
     </r>
   </si>
 </sst>
@@ -2779,14 +2635,14 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3065,85 +2921,85 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="46">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" ht="67.5" customHeight="true">
       <c r="A16" t="s" s="47">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s" s="48">
         <v>43</v>
       </c>
-      <c r="B16" t="s" s="48">
+      <c r="C16" t="s" s="49">
         <v>44</v>
       </c>
-      <c r="C16" t="s" s="49">
+      <c r="D16" t="s" s="50">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s" s="51">
         <v>45</v>
       </c>
-      <c r="D16" t="s" s="50">
+      <c r="F16" t="s" s="52">
         <v>46</v>
-      </c>
-      <c r="E16" t="s" s="51">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s" s="52">
-        <v>48</v>
       </c>
       <c r="G16" t="s" s="53">
         <v>39</v>
       </c>
       <c r="H16" t="s" s="54">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s" s="55">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s" s="56">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="67.5" customHeight="true">
       <c r="A17" t="s" s="57">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s" s="58">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s" s="59">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s" s="60">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s" s="61">
         <v>45</v>
       </c>
-      <c r="D17" t="s" s="60">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s" s="61">
-        <v>47</v>
-      </c>
       <c r="F17" t="s" s="62">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s" s="63">
         <v>39</v>
       </c>
       <c r="H17" t="s" s="64">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s" s="65">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s" s="66">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="82.5" customHeight="true">
       <c r="A18" t="s" s="67">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s" s="68">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s" s="69">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s" s="70">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s" s="71">
         <v>37</v>
@@ -3155,173 +3011,173 @@
         <v>39</v>
       </c>
       <c r="H18" t="s" s="74">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s" s="75">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s" s="76">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" ht="40.0" customHeight="true">
       <c r="A19" t="s" s="77">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s" s="78">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s" s="79">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s" s="80">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s" s="81">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s" s="82">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s" s="83">
         <v>39</v>
       </c>
       <c r="H19" t="s" s="84">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I19" t="s" s="85">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s" s="86">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="40.0" customHeight="true">
       <c r="A20" t="s" s="87">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s" s="88">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s" s="89">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s" s="90">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s" s="91">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s" s="92">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G20" t="s" s="93">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s" s="94">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I20" t="s" s="95">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J20" t="s" s="96">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" ht="40.0" customHeight="true">
       <c r="A21" t="s" s="97">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s" s="98">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s" s="99">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s" s="100">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s" s="101">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s" s="102">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="103">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s" s="104">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="105">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J21" t="s" s="106">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" ht="67.5" customHeight="true">
       <c r="A22" t="s" s="107">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s" s="108">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s" s="109">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s" s="110">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s" s="111">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s" s="112">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s" s="113">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="114">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="115">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s" s="116">
-        <v>93</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" ht="40.0" customHeight="true">
       <c r="A23" t="s" s="117">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s" s="118">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s" s="119">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s" s="120">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s" s="121">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="122">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s" s="123">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="124">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="125">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s" s="126">
-        <v>93</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3349,30 +3205,30 @@
     </row>
     <row r="25" customFormat="false" ht="29.0" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="127" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="128" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D25" s="129" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="130" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="131" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="J25" s="18"/>
       <c r="K25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="93.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="132" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -3482,7 +3338,6 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter>&amp;RV1.0.08.2020</oddFooter>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tab mới" r:id="rId4" sheetId="2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="94">
   <si>
     <t xml:space="preserve">Báo Giá Nội Thất</t>
   </si>
@@ -82,14 +82,7 @@
     <t xml:space="preserve">Bên B</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="18.0"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>test company</t>
-    </r>
+    <t/>
   </si>
   <si>
     <r>
@@ -105,7 +98,7 @@
         <sz val="13.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>: test</t>
+      <t xml:space="preserve">: </t>
     </r>
   </si>
   <si>
@@ -122,7 +115,7 @@
         <sz val="13.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>: test</t>
+      <t xml:space="preserve">: </t>
     </r>
   </si>
   <si>
@@ -139,7 +132,7 @@
         <sz val="13.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>: test</t>
+      <t xml:space="preserve">: </t>
     </r>
   </si>
   <si>
@@ -156,7 +149,7 @@
         <sz val="13.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>: test</t>
+      <t xml:space="preserve">: </t>
     </r>
   </si>
   <si>
@@ -224,7 +217,7 @@
         <sz val="13.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>: 01/01/2024</t>
+      <t>: 23/02/2024</t>
     </r>
   </si>
   <si>
@@ -826,27 +819,48 @@
   <si>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>6,900,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>II</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>1,000,000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>III</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
+      <t>IV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>27,600,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
       <t>3,000,000</t>
     </r>
   </si>
@@ -856,7 +870,25 @@
         <sz val="12.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>-100,000</t>
+      <t>8,000,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>14,000,000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>2,600,000</t>
     </r>
   </si>
   <si>
@@ -865,7 +897,7 @@
         <sz val="13.0"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>Chú thích: alo alo test asdasdassadasd</t>
+      <t>Chú thích: alo alo test</t>
     </r>
   </si>
 </sst>
@@ -878,7 +910,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="252">
+  <fonts count="828">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1944,6 +1976,2373 @@
     <font>
       <name val="Times New Roman"/>
       <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -1990,12 +4389,18 @@
       <sz val="13.0"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2006,7 +4411,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDAF2F4"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2018,7 +4423,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFDAF2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEEEEE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2096,7 +4517,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="413">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2117,7 +4538,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2145,19 +4570,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2165,11 +4590,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2223,13 +4648,13 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="9" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
@@ -2502,13 +4927,13 @@
     <xf numFmtId="0" fontId="239" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="241" fillId="9" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="9" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="9" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
@@ -2517,7 +4942,844 @@
     <xf numFmtId="0" fontId="249" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="9" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="9" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="9" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="9" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="9" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="9" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="803" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="809" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="9" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="9" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="821" fillId="9" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="9" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="9" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2549,7 +5811,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFAFAFA"/>
       <rgbColor rgb="FFDAF2F4"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -2564,7 +5826,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
@@ -2623,7 +5885,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2400300" cy="2076450"/>
+          <a:ext cx="2390775" cy="2076450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2635,21 +5897,21 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="11.57" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="24.42" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="24.41" collapsed="false" outlineLevel="0"/>
     <col min="3" max="3" customWidth="true" hidden="false" style="0" width="50.14" collapsed="false" outlineLevel="0"/>
     <col min="4" max="6" customWidth="true" hidden="false" style="0" width="11.42" collapsed="false" outlineLevel="0"/>
     <col min="7" max="7" customWidth="true" hidden="false" style="0" width="13.86" collapsed="false" outlineLevel="0"/>
@@ -2662,7 +5924,7 @@
     <row r="1" customFormat="false" ht="40.0" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="2"/>
@@ -2677,7 +5939,7 @@
     <row r="2" customFormat="false" ht="31.0" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2"/>
@@ -2692,7 +5954,7 @@
     <row r="3" customFormat="false" ht="31.0" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2"/>
@@ -2707,7 +5969,7 @@
     <row r="4" customFormat="false" ht="31.0" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2"/>
@@ -2722,7 +5984,7 @@
     <row r="5" customFormat="false" ht="31.0" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2"/>
@@ -2735,150 +5997,150 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="19.0" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="19.0" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="19.0" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="14"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" ht="22.5" customHeight="true">
-      <c r="A14" t="s" s="34">
+      <c r="A14" t="s" s="35">
         <v>30</v>
       </c>
-      <c r="B14" t="s" s="35">
+      <c r="B14" t="s" s="36">
         <v>31</v>
       </c>
       <c r="C14" s="0"/>
@@ -2888,420 +6150,1338 @@
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
-      <c r="J14" t="s" s="36">
+      <c r="J14" t="s" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="82.5" customHeight="true">
-      <c r="A15" t="s" s="37">
+      <c r="A15" t="s" s="38">
         <v>33</v>
       </c>
-      <c r="B15" t="s" s="38">
+      <c r="B15" t="s" s="39">
         <v>34</v>
       </c>
-      <c r="C15" t="s" s="39">
+      <c r="C15" t="s" s="40">
         <v>35</v>
       </c>
-      <c r="D15" t="s" s="40">
+      <c r="D15" t="s" s="41">
         <v>36</v>
       </c>
-      <c r="E15" t="s" s="41">
+      <c r="E15" t="s" s="42">
         <v>37</v>
       </c>
-      <c r="F15" t="s" s="42">
+      <c r="F15" t="s" s="43">
         <v>38</v>
       </c>
-      <c r="G15" t="s" s="43">
+      <c r="G15" t="s" s="44">
         <v>39</v>
       </c>
-      <c r="H15" t="s" s="44">
+      <c r="H15" t="s" s="45">
         <v>40</v>
       </c>
-      <c r="I15" t="s" s="45">
+      <c r="I15" t="s" s="46">
         <v>41</v>
       </c>
-      <c r="J15" t="s" s="46">
+      <c r="J15" t="s" s="47">
         <v>36</v>
       </c>
     </row>
     <row r="16" ht="67.5" customHeight="true">
-      <c r="A16" t="s" s="47">
+      <c r="A16" t="s" s="48">
         <v>42</v>
       </c>
-      <c r="B16" t="s" s="48">
+      <c r="B16" t="s" s="49">
         <v>43</v>
       </c>
-      <c r="C16" t="s" s="49">
+      <c r="C16" t="s" s="50">
         <v>44</v>
       </c>
-      <c r="D16" t="s" s="50">
+      <c r="D16" t="s" s="51">
         <v>36</v>
       </c>
-      <c r="E16" t="s" s="51">
+      <c r="E16" t="s" s="52">
         <v>45</v>
       </c>
-      <c r="F16" t="s" s="52">
+      <c r="F16" t="s" s="53">
         <v>46</v>
       </c>
-      <c r="G16" t="s" s="53">
+      <c r="G16" t="s" s="54">
         <v>39</v>
       </c>
-      <c r="H16" t="s" s="54">
+      <c r="H16" t="s" s="55">
         <v>47</v>
       </c>
-      <c r="I16" t="s" s="55">
+      <c r="I16" t="s" s="56">
         <v>41</v>
       </c>
-      <c r="J16" t="s" s="56">
+      <c r="J16" t="s" s="57">
         <v>36</v>
       </c>
     </row>
     <row r="17" ht="67.5" customHeight="true">
-      <c r="A17" t="s" s="57">
+      <c r="A17" t="s" s="58">
         <v>48</v>
       </c>
-      <c r="B17" t="s" s="58">
+      <c r="B17" t="s" s="59">
         <v>49</v>
       </c>
-      <c r="C17" t="s" s="59">
+      <c r="C17" t="s" s="60">
         <v>44</v>
       </c>
-      <c r="D17" t="s" s="60">
+      <c r="D17" t="s" s="61">
         <v>36</v>
       </c>
-      <c r="E17" t="s" s="61">
+      <c r="E17" t="s" s="62">
         <v>45</v>
       </c>
-      <c r="F17" t="s" s="62">
+      <c r="F17" t="s" s="63">
         <v>50</v>
       </c>
-      <c r="G17" t="s" s="63">
+      <c r="G17" t="s" s="64">
         <v>39</v>
       </c>
-      <c r="H17" t="s" s="64">
+      <c r="H17" t="s" s="65">
         <v>51</v>
       </c>
-      <c r="I17" t="s" s="65">
+      <c r="I17" t="s" s="66">
         <v>41</v>
       </c>
-      <c r="J17" t="s" s="66">
+      <c r="J17" t="s" s="67">
         <v>36</v>
       </c>
     </row>
     <row r="18" ht="82.5" customHeight="true">
-      <c r="A18" t="s" s="67">
+      <c r="A18" t="s" s="68">
         <v>52</v>
       </c>
-      <c r="B18" t="s" s="68">
+      <c r="B18" t="s" s="69">
         <v>53</v>
       </c>
-      <c r="C18" t="s" s="69">
+      <c r="C18" t="s" s="70">
         <v>54</v>
       </c>
-      <c r="D18" t="s" s="70">
+      <c r="D18" t="s" s="71">
         <v>36</v>
       </c>
-      <c r="E18" t="s" s="71">
+      <c r="E18" t="s" s="72">
         <v>37</v>
       </c>
-      <c r="F18" t="s" s="72">
+      <c r="F18" t="s" s="73">
         <v>38</v>
       </c>
-      <c r="G18" t="s" s="73">
+      <c r="G18" t="s" s="74">
         <v>39</v>
       </c>
-      <c r="H18" t="s" s="74">
+      <c r="H18" t="s" s="75">
         <v>55</v>
       </c>
-      <c r="I18" t="s" s="75">
+      <c r="I18" t="s" s="76">
         <v>41</v>
       </c>
-      <c r="J18" t="s" s="76">
+      <c r="J18" t="s" s="77">
         <v>36</v>
       </c>
     </row>
     <row r="19" ht="40.0" customHeight="true">
-      <c r="A19" t="s" s="77">
+      <c r="A19" t="s" s="78">
         <v>56</v>
       </c>
-      <c r="B19" t="s" s="78">
+      <c r="B19" t="s" s="79">
         <v>57</v>
       </c>
-      <c r="C19" t="s" s="79">
+      <c r="C19" t="s" s="80">
         <v>58</v>
       </c>
-      <c r="D19" t="s" s="80">
+      <c r="D19" t="s" s="81">
         <v>36</v>
       </c>
-      <c r="E19" t="s" s="81">
+      <c r="E19" t="s" s="82">
         <v>59</v>
       </c>
-      <c r="F19" t="s" s="82">
+      <c r="F19" t="s" s="83">
         <v>60</v>
       </c>
-      <c r="G19" t="s" s="83">
+      <c r="G19" t="s" s="84">
         <v>39</v>
       </c>
-      <c r="H19" t="s" s="84">
+      <c r="H19" t="s" s="85">
         <v>61</v>
       </c>
-      <c r="I19" t="s" s="85">
+      <c r="I19" t="s" s="86">
         <v>41</v>
       </c>
-      <c r="J19" t="s" s="86">
+      <c r="J19" t="s" s="87">
         <v>36</v>
       </c>
     </row>
     <row r="20" ht="40.0" customHeight="true">
-      <c r="A20" t="s" s="87">
+      <c r="A20" t="s" s="88">
         <v>62</v>
       </c>
-      <c r="B20" t="s" s="88">
+      <c r="B20" t="s" s="89">
         <v>63</v>
       </c>
-      <c r="C20" t="s" s="89">
+      <c r="C20" t="s" s="90">
         <v>64</v>
       </c>
-      <c r="D20" t="s" s="90">
+      <c r="D20" t="s" s="91">
         <v>65</v>
       </c>
-      <c r="E20" t="s" s="91">
+      <c r="E20" t="s" s="92">
         <v>46</v>
       </c>
-      <c r="F20" t="s" s="92">
+      <c r="F20" t="s" s="93">
         <v>66</v>
       </c>
-      <c r="G20" t="s" s="93">
+      <c r="G20" t="s" s="94">
         <v>67</v>
       </c>
-      <c r="H20" t="s" s="94">
+      <c r="H20" t="s" s="95">
         <v>68</v>
       </c>
-      <c r="I20" t="s" s="95">
+      <c r="I20" t="s" s="96">
         <v>69</v>
       </c>
-      <c r="J20" t="s" s="96">
+      <c r="J20" t="s" s="97">
         <v>68</v>
       </c>
     </row>
     <row r="21" ht="40.0" customHeight="true">
-      <c r="A21" t="s" s="97">
+      <c r="A21" t="s" s="98">
         <v>70</v>
       </c>
-      <c r="B21" t="s" s="98">
+      <c r="B21" t="s" s="99">
         <v>71</v>
       </c>
-      <c r="C21" t="s" s="99">
+      <c r="C21" t="s" s="100">
         <v>64</v>
       </c>
-      <c r="D21" t="s" s="100">
+      <c r="D21" t="s" s="101">
         <v>72</v>
       </c>
-      <c r="E21" t="s" s="101">
+      <c r="E21" t="s" s="102">
         <v>73</v>
       </c>
-      <c r="F21" t="s" s="102">
+      <c r="F21" t="s" s="103">
         <v>74</v>
       </c>
-      <c r="G21" t="s" s="103">
+      <c r="G21" t="s" s="104">
         <v>75</v>
       </c>
-      <c r="H21" t="s" s="104">
+      <c r="H21" t="s" s="105">
         <v>76</v>
       </c>
-      <c r="I21" t="s" s="105">
+      <c r="I21" t="s" s="106">
         <v>69</v>
       </c>
-      <c r="J21" t="s" s="106">
+      <c r="J21" t="s" s="107">
         <v>76</v>
       </c>
     </row>
     <row r="22" ht="67.5" customHeight="true">
-      <c r="A22" t="s" s="107">
+      <c r="A22" t="s" s="108">
         <v>77</v>
       </c>
-      <c r="B22" t="s" s="108">
+      <c r="B22" t="s" s="109">
         <v>78</v>
       </c>
-      <c r="C22" t="s" s="109">
+      <c r="C22" t="s" s="110">
         <v>79</v>
       </c>
-      <c r="D22" t="s" s="110">
+      <c r="D22" t="s" s="111">
         <v>36</v>
       </c>
-      <c r="E22" t="s" s="111">
+      <c r="E22" t="s" s="112">
         <v>45</v>
       </c>
-      <c r="F22" t="s" s="112">
+      <c r="F22" t="s" s="113">
         <v>36</v>
       </c>
-      <c r="G22" t="s" s="113">
+      <c r="G22" t="s" s="114">
         <v>80</v>
       </c>
-      <c r="H22" t="s" s="114">
+      <c r="H22" t="s" s="115">
         <v>81</v>
       </c>
-      <c r="I22" t="s" s="115">
+      <c r="I22" t="s" s="116">
         <v>41</v>
       </c>
-      <c r="J22" t="s" s="116">
+      <c r="J22" t="s" s="117">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="40.0" customHeight="true">
-      <c r="A23" t="s" s="117">
+      <c r="A23" t="s" s="118">
         <v>82</v>
       </c>
-      <c r="B23" t="s" s="118">
+      <c r="B23" t="s" s="119">
         <v>83</v>
       </c>
-      <c r="C23" t="s" s="119">
+      <c r="C23" t="s" s="120">
         <v>84</v>
       </c>
-      <c r="D23" t="s" s="120">
+      <c r="D23" t="s" s="121">
         <v>36</v>
       </c>
-      <c r="E23" t="s" s="121">
+      <c r="E23" t="s" s="122">
         <v>77</v>
       </c>
-      <c r="F23" t="s" s="122">
+      <c r="F23" t="s" s="123">
         <v>36</v>
       </c>
-      <c r="G23" t="s" s="123">
+      <c r="G23" t="s" s="124">
         <v>80</v>
       </c>
-      <c r="H23" t="s" s="124">
+      <c r="H23" t="s" s="125">
         <v>76</v>
       </c>
-      <c r="I23" t="s" s="125">
+      <c r="I23" t="s" s="126">
         <v>41</v>
       </c>
-      <c r="J23" t="s" s="126">
+      <c r="J23" t="s" s="127">
         <v>36</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
+    <row r="24" ht="22.5" customHeight="true">
+      <c r="A24" t="s" s="128">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s" s="129">
+        <v>31</v>
+      </c>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" t="s" s="130">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" ht="82.5" customHeight="true">
+      <c r="A25" t="s" s="131">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s" s="132">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s" s="133">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s" s="134">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s" s="135">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s" s="136">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s" s="137">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s" s="138">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s" s="139">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s" s="140">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" ht="67.5" customHeight="true">
+      <c r="A26" t="s" s="141">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s" s="142">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s" s="143">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s" s="144">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s" s="145">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s" s="146">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s" s="147">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s" s="148">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s" s="149">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s" s="150">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" ht="67.5" customHeight="true">
+      <c r="A27" t="s" s="151">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s" s="152">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s" s="153">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s" s="154">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s" s="155">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s" s="156">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s" s="157">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s" s="158">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s" s="159">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s" s="160">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" ht="82.5" customHeight="true">
+      <c r="A28" t="s" s="161">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s" s="162">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s" s="163">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s" s="164">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s" s="165">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s" s="166">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s" s="167">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s" s="168">
+        <v>55</v>
+      </c>
+      <c r="I28" t="s" s="169">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s" s="170">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" ht="40.0" customHeight="true">
+      <c r="A29" t="s" s="171">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s" s="172">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s" s="173">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s" s="174">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s" s="175">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s" s="176">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s" s="177">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s" s="178">
+        <v>61</v>
+      </c>
+      <c r="I29" t="s" s="179">
+        <v>41</v>
+      </c>
+      <c r="J29" t="s" s="180">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" ht="40.0" customHeight="true">
+      <c r="A30" t="s" s="181">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s" s="182">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s" s="183">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s" s="184">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s" s="185">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s" s="186">
+        <v>66</v>
+      </c>
+      <c r="G30" t="s" s="187">
+        <v>67</v>
+      </c>
+      <c r="H30" t="s" s="188">
+        <v>68</v>
+      </c>
+      <c r="I30" t="s" s="189">
+        <v>69</v>
+      </c>
+      <c r="J30" t="s" s="190">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" ht="40.0" customHeight="true">
+      <c r="A31" t="s" s="191">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s" s="192">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s" s="193">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s" s="194">
+        <v>72</v>
+      </c>
+      <c r="E31" t="s" s="195">
+        <v>73</v>
+      </c>
+      <c r="F31" t="s" s="196">
+        <v>74</v>
+      </c>
+      <c r="G31" t="s" s="197">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s" s="198">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s" s="199">
+        <v>69</v>
+      </c>
+      <c r="J31" t="s" s="200">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" ht="67.5" customHeight="true">
+      <c r="A32" t="s" s="201">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s" s="202">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s" s="203">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s" s="204">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s" s="205">
+        <v>45</v>
+      </c>
+      <c r="F32" t="s" s="206">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s" s="207">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s" s="208">
+        <v>81</v>
+      </c>
+      <c r="I32" t="s" s="209">
+        <v>41</v>
+      </c>
+      <c r="J32" t="s" s="210">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" ht="40.0" customHeight="true">
+      <c r="A33" t="s" s="211">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s" s="212">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s" s="213">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s" s="214">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s" s="215">
+        <v>77</v>
+      </c>
+      <c r="F33" t="s" s="216">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s" s="217">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s" s="218">
+        <v>76</v>
+      </c>
+      <c r="I33" t="s" s="219">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s" s="220">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" ht="22.5" customHeight="true">
+      <c r="A34" t="s" s="221">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s" s="222">
+        <v>31</v>
+      </c>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" t="s" s="223">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" ht="82.5" customHeight="true">
+      <c r="A35" t="s" s="224">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s" s="225">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s" s="226">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s" s="227">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s" s="228">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s" s="229">
+        <v>38</v>
+      </c>
+      <c r="G35" t="s" s="230">
+        <v>39</v>
+      </c>
+      <c r="H35" t="s" s="231">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s" s="232">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s" s="233">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" ht="67.5" customHeight="true">
+      <c r="A36" t="s" s="234">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s" s="235">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s" s="236">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s" s="237">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s" s="238">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s" s="239">
+        <v>46</v>
+      </c>
+      <c r="G36" t="s" s="240">
+        <v>39</v>
+      </c>
+      <c r="H36" t="s" s="241">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s" s="242">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s" s="243">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" ht="67.5" customHeight="true">
+      <c r="A37" t="s" s="244">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s" s="245">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s" s="246">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s" s="247">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s" s="248">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s" s="249">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s" s="250">
+        <v>39</v>
+      </c>
+      <c r="H37" t="s" s="251">
+        <v>51</v>
+      </c>
+      <c r="I37" t="s" s="252">
+        <v>41</v>
+      </c>
+      <c r="J37" t="s" s="253">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" ht="82.5" customHeight="true">
+      <c r="A38" t="s" s="254">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s" s="255">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s" s="256">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s" s="257">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s" s="258">
+        <v>37</v>
+      </c>
+      <c r="F38" t="s" s="259">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s" s="260">
+        <v>39</v>
+      </c>
+      <c r="H38" t="s" s="261">
+        <v>55</v>
+      </c>
+      <c r="I38" t="s" s="262">
+        <v>41</v>
+      </c>
+      <c r="J38" t="s" s="263">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" ht="40.0" customHeight="true">
+      <c r="A39" t="s" s="264">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s" s="265">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s" s="266">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s" s="267">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s" s="268">
+        <v>59</v>
+      </c>
+      <c r="F39" t="s" s="269">
+        <v>60</v>
+      </c>
+      <c r="G39" t="s" s="270">
+        <v>39</v>
+      </c>
+      <c r="H39" t="s" s="271">
+        <v>61</v>
+      </c>
+      <c r="I39" t="s" s="272">
+        <v>41</v>
+      </c>
+      <c r="J39" t="s" s="273">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" ht="40.0" customHeight="true">
+      <c r="A40" t="s" s="274">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s" s="275">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s" s="276">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s" s="277">
+        <v>65</v>
+      </c>
+      <c r="E40" t="s" s="278">
+        <v>46</v>
+      </c>
+      <c r="F40" t="s" s="279">
+        <v>66</v>
+      </c>
+      <c r="G40" t="s" s="280">
+        <v>67</v>
+      </c>
+      <c r="H40" t="s" s="281">
+        <v>68</v>
+      </c>
+      <c r="I40" t="s" s="282">
+        <v>69</v>
+      </c>
+      <c r="J40" t="s" s="283">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" ht="40.0" customHeight="true">
+      <c r="A41" t="s" s="284">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s" s="285">
+        <v>71</v>
+      </c>
+      <c r="C41" t="s" s="286">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s" s="287">
+        <v>72</v>
+      </c>
+      <c r="E41" t="s" s="288">
+        <v>73</v>
+      </c>
+      <c r="F41" t="s" s="289">
+        <v>74</v>
+      </c>
+      <c r="G41" t="s" s="290">
+        <v>75</v>
+      </c>
+      <c r="H41" t="s" s="291">
+        <v>76</v>
+      </c>
+      <c r="I41" t="s" s="292">
+        <v>69</v>
+      </c>
+      <c r="J41" t="s" s="293">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" ht="67.5" customHeight="true">
+      <c r="A42" t="s" s="294">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s" s="295">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s" s="296">
+        <v>79</v>
+      </c>
+      <c r="D42" t="s" s="297">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s" s="298">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s" s="299">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s" s="300">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s" s="301">
+        <v>81</v>
+      </c>
+      <c r="I42" t="s" s="302">
+        <v>41</v>
+      </c>
+      <c r="J42" t="s" s="303">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" ht="40.0" customHeight="true">
+      <c r="A43" t="s" s="304">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s" s="305">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s" s="306">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s" s="307">
+        <v>36</v>
+      </c>
+      <c r="E43" t="s" s="308">
+        <v>77</v>
+      </c>
+      <c r="F43" t="s" s="309">
+        <v>36</v>
+      </c>
+      <c r="G43" t="s" s="310">
+        <v>80</v>
+      </c>
+      <c r="H43" t="s" s="311">
+        <v>76</v>
+      </c>
+      <c r="I43" t="s" s="312">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s" s="313">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" ht="22.5" customHeight="true">
+      <c r="A44" t="s" s="314">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s" s="315">
+        <v>31</v>
+      </c>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" t="s" s="316">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" ht="82.5" customHeight="true">
+      <c r="A45" t="s" s="317">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s" s="318">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s" s="319">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s" s="320">
+        <v>36</v>
+      </c>
+      <c r="E45" t="s" s="321">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s" s="322">
+        <v>38</v>
+      </c>
+      <c r="G45" t="s" s="323">
+        <v>39</v>
+      </c>
+      <c r="H45" t="s" s="324">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s" s="325">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s" s="326">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" ht="67.5" customHeight="true">
+      <c r="A46" t="s" s="327">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s" s="328">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s" s="329">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s" s="330">
+        <v>36</v>
+      </c>
+      <c r="E46" t="s" s="331">
+        <v>45</v>
+      </c>
+      <c r="F46" t="s" s="332">
+        <v>46</v>
+      </c>
+      <c r="G46" t="s" s="333">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s" s="334">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s" s="335">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s" s="336">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" ht="67.5" customHeight="true">
+      <c r="A47" t="s" s="337">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s" s="338">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s" s="339">
+        <v>44</v>
+      </c>
+      <c r="D47" t="s" s="340">
+        <v>36</v>
+      </c>
+      <c r="E47" t="s" s="341">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s" s="342">
+        <v>50</v>
+      </c>
+      <c r="G47" t="s" s="343">
+        <v>39</v>
+      </c>
+      <c r="H47" t="s" s="344">
+        <v>51</v>
+      </c>
+      <c r="I47" t="s" s="345">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s" s="346">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" ht="82.5" customHeight="true">
+      <c r="A48" t="s" s="347">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s" s="348">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s" s="349">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s" s="350">
+        <v>36</v>
+      </c>
+      <c r="E48" t="s" s="351">
+        <v>37</v>
+      </c>
+      <c r="F48" t="s" s="352">
+        <v>38</v>
+      </c>
+      <c r="G48" t="s" s="353">
+        <v>39</v>
+      </c>
+      <c r="H48" t="s" s="354">
+        <v>55</v>
+      </c>
+      <c r="I48" t="s" s="355">
+        <v>41</v>
+      </c>
+      <c r="J48" t="s" s="356">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" ht="40.0" customHeight="true">
+      <c r="A49" t="s" s="357">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s" s="358">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s" s="359">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s" s="360">
+        <v>36</v>
+      </c>
+      <c r="E49" t="s" s="361">
+        <v>59</v>
+      </c>
+      <c r="F49" t="s" s="362">
+        <v>60</v>
+      </c>
+      <c r="G49" t="s" s="363">
+        <v>39</v>
+      </c>
+      <c r="H49" t="s" s="364">
+        <v>61</v>
+      </c>
+      <c r="I49" t="s" s="365">
+        <v>41</v>
+      </c>
+      <c r="J49" t="s" s="366">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" ht="40.0" customHeight="true">
+      <c r="A50" t="s" s="367">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s" s="368">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s" s="369">
+        <v>64</v>
+      </c>
+      <c r="D50" t="s" s="370">
+        <v>65</v>
+      </c>
+      <c r="E50" t="s" s="371">
+        <v>46</v>
+      </c>
+      <c r="F50" t="s" s="372">
+        <v>66</v>
+      </c>
+      <c r="G50" t="s" s="373">
+        <v>67</v>
+      </c>
+      <c r="H50" t="s" s="374">
+        <v>68</v>
+      </c>
+      <c r="I50" t="s" s="375">
+        <v>69</v>
+      </c>
+      <c r="J50" t="s" s="376">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" ht="40.0" customHeight="true">
+      <c r="A51" t="s" s="377">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s" s="378">
+        <v>71</v>
+      </c>
+      <c r="C51" t="s" s="379">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s" s="380">
+        <v>72</v>
+      </c>
+      <c r="E51" t="s" s="381">
+        <v>73</v>
+      </c>
+      <c r="F51" t="s" s="382">
+        <v>74</v>
+      </c>
+      <c r="G51" t="s" s="383">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s" s="384">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s" s="385">
+        <v>69</v>
+      </c>
+      <c r="J51" t="s" s="386">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" ht="67.5" customHeight="true">
+      <c r="A52" t="s" s="387">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s" s="388">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s" s="389">
+        <v>79</v>
+      </c>
+      <c r="D52" t="s" s="390">
+        <v>36</v>
+      </c>
+      <c r="E52" t="s" s="391">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s" s="392">
+        <v>36</v>
+      </c>
+      <c r="G52" t="s" s="393">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s" s="394">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s" s="395">
+        <v>41</v>
+      </c>
+      <c r="J52" t="s" s="396">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" ht="40.0" customHeight="true">
+      <c r="A53" t="s" s="397">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s" s="398">
+        <v>83</v>
+      </c>
+      <c r="C53" t="s" s="399">
+        <v>84</v>
+      </c>
+      <c r="D53" t="s" s="400">
+        <v>36</v>
+      </c>
+      <c r="E53" t="s" s="401">
+        <v>77</v>
+      </c>
+      <c r="F53" t="s" s="402">
+        <v>36</v>
+      </c>
+      <c r="G53" t="s" s="403">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s" s="404">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s" s="405">
+        <v>41</v>
+      </c>
+      <c r="J53" t="s" s="406">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15" t="s">
+      <c r="B54" s="16"/>
+      <c r="C54" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D54" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15" t="s">
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15" t="s">
+      <c r="H54" s="16"/>
+      <c r="I54" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="17"/>
     </row>
-    <row r="25" customFormat="false" ht="29.0" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="127" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="128" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="129" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="130" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="131" t="s">
+    <row r="55" customFormat="false" ht="29.0" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="407" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="408" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="409" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="410" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="411" t="s">
+        <v>92</v>
+      </c>
+      <c r="J55" s="19"/>
+      <c r="K55" s="20"/>
     </row>
-    <row r="26" customFormat="false" ht="93.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="132" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="19"/>
+    <row r="56" customFormat="false" ht="93.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="412" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="20"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="s">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="19"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="20"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="21" t="s">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="19"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="20"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="19"/>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="20"/>
     </row>
-    <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K30" s="19"/>
+    <row r="60" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K60" s="20"/>
     </row>
-    <row r="31" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K31" s="19"/>
+    <row r="61" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K61" s="20"/>
     </row>
-    <row r="32" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K32" s="19"/>
+    <row r="62" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K62" s="20"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K33" s="19"/>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K63" s="20"/>
     </row>
-    <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="143">
+  <mergeCells count="476">
     <mergeCell ref="A1:B5"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A12:A13"/>
@@ -3324,20 +7504,24 @@
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="B14:I14"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:C29"/>
-    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:C59"/>
+    <mergeCell ref="H58:I58"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter>&amp;RV1.0.08.2020</oddFooter>
